--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>讲讲Netty的特点</t>
+  </si>
+  <si>
+    <t>高并发</t>
+  </si>
+  <si>
+    <t>Netty是一款基于NIO（Nonblocking I/O，非阻塞IO）开发的网络通信框架，对比于BIO（Blocking I/O，阻塞IO），他的并发性能得到了很大提高 。</t>
+  </si>
+  <si>
+    <t>传输快</t>
+  </si>
+  <si>
+    <t>Netty的传输快其实也是依赖了NIO的一个特性——零拷贝。</t>
+  </si>
+  <si>
+    <t>封装好</t>
+  </si>
+  <si>
+    <t>Netty封装了NIO操作的很多细节，提供易于使用的API。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
@@ -23,7 +49,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,8 +58,57 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF555555"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,12 +123,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -62,61 +183,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,23 +197,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,14 +215,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -169,15 +222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,25 +244,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,25 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,126 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,39 +435,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -434,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,159 +496,216 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -985,14 +1055,68 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="3:3">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" ht="14.25" spans="3:3">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" ht="15" spans="3:3">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:3">
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" ht="15" spans="3:3">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" ht="14.25" spans="3:3">
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" ht="15" spans="3:3">
+      <c r="C12" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="IO" sheetId="1" r:id="rId1"/>
+    <sheet name="RPC" sheetId="2" r:id="rId2"/>
+    <sheet name="网络" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -37,6 +37,458 @@
   </si>
   <si>
     <t>Netty封装了NIO操作的很多细节，提供易于使用的API。</t>
+  </si>
+  <si>
+    <t>BIO:</t>
+  </si>
+  <si>
+    <r>
+      <t>同步阻塞的IO，就是Socket编程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这种方式是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有一个阻塞的模型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过Client和Server建立连接，（需要3次握手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，很耗费性能。）</t>
+    </r>
+  </si>
+  <si>
+    <t>实现流程：</t>
+  </si>
+  <si>
+    <t>服务端先启动，服务端里有一个accept方法，整个程序在这里阻塞着，</t>
+  </si>
+  <si>
+    <t>客服端发起一次请求</t>
+  </si>
+  <si>
+    <t>服务端接收到请求开启一个线程继续阻塞，线程处理客户端发起请求的任务。</t>
+  </si>
+  <si>
+    <r>
+      <t>应用场景：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>适用于连接数比较小且固定的架构，这种方式对服务器要求比较高；并发局限于应用；jdk1.4以前的唯一选择，但是程序简单易懂</t>
+    </r>
+  </si>
+  <si>
+    <t>NIO:</t>
+  </si>
+  <si>
+    <r>
+      <t>同步</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非阻塞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的IO，NIO的理念就是通过一个通过服务端的Selector（选择器）处理所有的Client。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SocketChannel管道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SocketChannel管道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注册到Selector（选择器）上，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轮训Selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不管Client还是Server上的都轮训这些通道，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看管道的状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Connect,Accept,Read,Write的时候做什么处理，</t>
+    </r>
+  </si>
+  <si>
+    <t>应用场景：适用于连接数比较多且连接比较短（轻操作）的架构，比如聊天服务器，并发局限于应用；编程比较复杂，jdk1.4开始支持</t>
+  </si>
+  <si>
+    <t>Buffer（缓存）</t>
+  </si>
+  <si>
+    <t>Channel（管道）</t>
+  </si>
+  <si>
+    <t>Selector（选择器）</t>
+  </si>
+  <si>
+    <t>AIO：</t>
+  </si>
+  <si>
+    <t>异步非阻塞的，有一个线程组，Selector介入轮训的过程不需要代码来实现，内部已经封装好了，如果请求进来了通过内部某一个线程组进行接入，</t>
+  </si>
+  <si>
+    <t>通过创建一个对象Handel来处理Client的请求。如果要处理多个Client的请求需要用递归的操作，通过Handel来读写</t>
+  </si>
+  <si>
+    <t>应用场景：适用于连接数比较多且连接比较长（重操作）的架构，比较相册服务器，充分调用OS参与并发操作，编程比较复杂，jdk7开始支持；</t>
+  </si>
+  <si>
+    <t>粘包：</t>
+  </si>
+  <si>
+    <t>由于TCP是不会出现丢包的，所以这一个数据包中包含了发送端发送的两个数据包的信息，这种现象即为粘包</t>
+  </si>
+  <si>
+    <t>拆包：</t>
+  </si>
+  <si>
+    <t>接收端收到了两个数据包，但是这两个数据包要么是不完整的</t>
+  </si>
+  <si>
+    <t>粘包、拆包发生原因</t>
+  </si>
+  <si>
+    <t>要发送的数据大于TCP发送缓冲区剩余空间大小，将会发生拆包</t>
+  </si>
+  <si>
+    <t>待发送数据大于MSS（最大报文长度），TCP在传输前将进行拆包。</t>
+  </si>
+  <si>
+    <t>要发送的数据小于TCP发送缓冲区的大小，TCP将多次写入缓冲区的数据一次发送出去，将会发生粘包。</t>
+  </si>
+  <si>
+    <t>接收数据端的应用层没有及时读取接收缓冲区中的数据，将发生粘包。</t>
+  </si>
+  <si>
+    <t>粘包、拆包解决办法</t>
+  </si>
+  <si>
+    <t>发送端给每个数据包添加包首部，首部中应该至少包含数据包的长度，这样接收端在接收到数据后，通过读取包首部的长度字段，便知道每一个数据包的实际长度了。</t>
+  </si>
+  <si>
+    <t>发送端将每个数据包封装为固定长度（不够的可以通过补0填充），这样接收端每次从接收缓冲区中读取固定长度的数据就自然而然的把每个数据包拆分开来。</t>
+  </si>
+  <si>
+    <t>可以在数据包之间设置边界，如添加特殊符号，这样，接收端通过这个边界就可以将不同的数据包拆分开。</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>远程过程调用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>消费方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>服务方提供的接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动态代理获取代理对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>象</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后调用代理对象的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，代理对象在内部进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>远程调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，获得计算结果</t>
+    </r>
+  </si>
+  <si>
+    <t>主要有服务提供方暴露服务</t>
+  </si>
+  <si>
+    <t>服务消费方获取代理对象</t>
+  </si>
+  <si>
+    <t>代理对象与服务提供方建立远程连接</t>
+  </si>
+  <si>
+    <t>暴露服务</t>
+  </si>
+  <si>
+    <t>建立ServerSocket服务，并监听指定端口</t>
+  </si>
+  <si>
+    <t>当有远程连接建立时，创建一个线程，在线程中从输入流中依次读取方法名、参数类型、参数值等信息</t>
+  </si>
+  <si>
+    <t>，并根据方法名和参数执行实例对象service中对应的方法，获得返回结果</t>
+  </si>
+  <si>
+    <t>代理工厂</t>
+  </si>
+  <si>
+    <t>消费方获取代理对象，使用JDK的动态代理API，传入接口类名。生成代理对象的时候，需要传入一个实现了InvocationHandler的对象</t>
+  </si>
+  <si>
+    <t>代理对象建立远程连接</t>
+  </si>
+  <si>
+    <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
   </si>
 </sst>
 </file>
@@ -91,6 +543,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -101,16 +596,64 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,29 +665,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,76 +673,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,181 +696,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,76 +890,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +917,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,10 +995,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +1007,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,9 +1144,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -703,6 +1152,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -766,6 +1218,182 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>48260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="3695700"/>
+          <a:ext cx="5448300" cy="2315210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="857250"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="685800"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="733425"/>
+          <a:ext cx="5867400" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1055,10 +1683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1067,7 +1695,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1095,48 +1723,338 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" ht="15.75" spans="3:3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" ht="14.25" spans="3:3">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="15" spans="3:3">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" ht="14.25" spans="3:3">
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" ht="15" spans="3:3">
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" ht="14.25" spans="3:3">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" ht="15" spans="3:3">
-      <c r="C12" s="5"/>
+    <row r="6" ht="15.75" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:3">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" ht="15" spans="2:3">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:3">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" ht="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:3">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" ht="15" spans="2:3">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1"/>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1"/>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1"/>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -10,6 +10,7 @@
     <sheet name="IO" sheetId="1" r:id="rId1"/>
     <sheet name="RPC" sheetId="2" r:id="rId2"/>
     <sheet name="网络" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -43,6 +44,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同步阻塞的IO，就是Socket编程</t>
     </r>
     <r>
@@ -112,6 +121,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用场景：</t>
     </r>
     <r>
@@ -130,6 +147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同步</t>
     </r>
     <r>
@@ -156,6 +180,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Server</t>
     </r>
     <r>
@@ -234,6 +266,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后</t>
     </r>
     <r>
@@ -496,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -543,6 +582,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -551,7 +627,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,21 +712,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,99 +725,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -696,25 +735,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,157 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,10 +929,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -917,23 +988,26 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -952,41 +1026,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -995,10 +1034,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,133 +1046,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1685,8 +1724,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1908,7 +1947,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2073,4 +2112,20 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -334,10 +334,87 @@
     <t>AIO：</t>
   </si>
   <si>
-    <t>异步非阻塞的，有一个线程组，Selector介入轮训的过程不需要代码来实现，内部已经封装好了，如果请求进来了通过内部某一个线程组进行接入，</t>
-  </si>
-  <si>
-    <t>通过创建一个对象Handel来处理Client的请求。如果要处理多个Client的请求需要用递归的操作，通过Handel来读写</t>
+    <r>
+      <t>异步非阻塞的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，有一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selector介入轮训的过程不需要代码来实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，内部已经封装好了，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果请求进来了通过内部某一个线程组进行接入，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>通过创建一个对象Handel来处理Client的请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。如果要处理多个Client的请求需要用递归的操作，通过Handel来读写</t>
+    </r>
   </si>
   <si>
     <t>应用场景：适用于连接数比较多且连接比较长（重操作）的架构，比较相册服务器，充分调用OS参与并发操作，编程比较复杂，jdk7开始支持；</t>
@@ -358,28 +435,348 @@
     <t>粘包、拆包发生原因</t>
   </si>
   <si>
-    <t>要发送的数据大于TCP发送缓冲区剩余空间大小，将会发生拆包</t>
-  </si>
-  <si>
-    <t>待发送数据大于MSS（最大报文长度），TCP在传输前将进行拆包。</t>
-  </si>
-  <si>
-    <t>要发送的数据小于TCP发送缓冲区的大小，TCP将多次写入缓冲区的数据一次发送出去，将会发生粘包。</t>
-  </si>
-  <si>
-    <t>接收数据端的应用层没有及时读取接收缓冲区中的数据，将发生粘包。</t>
+    <r>
+      <t>要发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>送的数据大于TCP发送缓冲区剩余空间大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将会发生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拆包</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>待发送数据大于MSS（最大报文长度）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，TCP在传输前将进行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拆包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送的数据小于TCP发送缓冲区的大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，TCP将多次写入缓冲区的数据一次发送出去，将会发生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>粘包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>接收</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据端的应用层没有及时读取接收缓冲区中的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将发生</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>粘包</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>粘包、拆包解决办法</t>
   </si>
   <si>
-    <t>发送端给每个数据包添加包首部，首部中应该至少包含数据包的长度，这样接收端在接收到数据后，通过读取包首部的长度字段，便知道每一个数据包的实际长度了。</t>
-  </si>
-  <si>
-    <t>发送端将每个数据包封装为固定长度（不够的可以通过补0填充），这样接收端每次从接收缓冲区中读取固定长度的数据就自然而然的把每个数据包拆分开来。</t>
-  </si>
-  <si>
-    <t>可以在数据包之间设置边界，如添加特殊符号，这样，接收端通过这个边界就可以将不同的数据包拆分开。</t>
+    <r>
+      <t>发送端给每个数据包添</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加包首部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，首部中应该</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>至少包含数据包的长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样接收端在接收到数据后，通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读取包首部的长度字段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>便知道每一个数据包的实际长度了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发送端将每</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>个数据包封装为固定长度（不够的可以通过补0填充）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样接收端每次从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接收缓冲区中读取固定长度的数据就自然而然的把每个数据包拆分开来。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据包之间设置边界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如添</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>加特殊符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这样，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接收端通过这个边界就可以将不同的数据包拆分开。</t>
+    </r>
   </si>
   <si>
     <t>RPC</t>
@@ -584,7 +981,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -598,52 +1048,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +1078,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,59 +1116,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -741,25 +1138,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,73 +1288,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,73 +1312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,31 +1327,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,16 +1362,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1003,25 +1394,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1034,10 +1431,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1046,133 +1443,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1724,8 +2121,8 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1858,12 +2255,12 @@
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1894,22 +2291,22 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1919,17 +2316,17 @@
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1946,8 +2343,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2102,8 +2499,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -335,6 +335,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>异步非阻塞的</t>
     </r>
     <r>
@@ -403,6 +411,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过创建一个对象Handel来处理Client的请求</t>
     </r>
     <r>
@@ -436,6 +452,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>要发</t>
     </r>
     <r>
@@ -473,6 +496,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>待发送数据大于MSS（最大报文长度）</t>
     </r>
     <r>
@@ -509,6 +540,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>要</t>
     </r>
     <r>
@@ -556,6 +594,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接收</t>
     </r>
     <r>
@@ -606,6 +651,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发送端给每个数据包添</t>
     </r>
     <r>
@@ -685,6 +737,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>发送端将每</t>
     </r>
     <r>
@@ -722,6 +781,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>可以在</t>
     </r>
     <r>
@@ -932,10 +998,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -981,30 +1047,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,13 +1068,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1033,15 +1076,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1061,24 +1142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,22 +1163,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1122,6 +1180,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1132,6 +1198,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1144,25 +1216,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,19 +1318,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1198,115 +1354,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,26 +1392,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1356,6 +1407,15 @@
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1379,17 +1439,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,21 +1489,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1431,10 +1497,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1443,133 +1509,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2343,8 +2409,8 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2499,7 +2565,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6:J20"/>
     </sheetView>
   </sheetViews>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -991,6 +991,325 @@
   </si>
   <si>
     <t>这个Handler中重写了invoke方法，实现代理对象的方法与服务提供方建立连接并获得返回结果</t>
+  </si>
+  <si>
+    <t>Netty 是什么</t>
+  </si>
+  <si>
+    <t>Netty 是一款基于 NIO（Nonblocking I/O，非阻塞IO）开发的网络通信框架</t>
+  </si>
+  <si>
+    <t>Netty 的特点是什么？</t>
+  </si>
+  <si>
+    <t>高并发：Netty 是一款基于 NIO</t>
+  </si>
+  <si>
+    <t>传输快：Netty 的传输依赖于零拷贝特性，尽量减少不必要的内存拷贝，实现了更高效率的传输。</t>
+  </si>
+  <si>
+    <t>封装好：Netty 封装了 NIO 操作的很多细节，提供了易于使用调用接口。</t>
+  </si>
+  <si>
+    <t>什么是 Netty 的零拷贝？</t>
+  </si>
+  <si>
+    <t>Netty 的零拷贝主要包含三个方面：</t>
+  </si>
+  <si>
+    <r>
+      <t>Netty 的接收和发送</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ByteBuffer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">采用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIRECT BUFFERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用堆外直接内存进行 Socket 读写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要进行字节缓冲区的二次拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果使用传统的堆内存（HEAP BUFFERS）进行 Socket 读写，JVM 会将堆内存 Buffer 拷贝一份到直接内存中，然后才写入 Socket 中。</t>
+  </si>
+  <si>
+    <t>相比于堆外直接内存，消息在发送过程中多了一次缓冲区的内存拷贝。</t>
+  </si>
+  <si>
+    <r>
+      <t>Netty 提供了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组合 Buffer 对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以聚合多个 ByteBuffer 对象，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户可以像操作一个 Buffer 那样方便的对组合 Buffer 进行操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>避免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了传统通过内存拷贝的方式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将几个小 Buffer 合并成一个大的 Buffer。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Netty 的文</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>件传输采用了 transferTo 方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>直接将文件缓冲区的数据发送到目标 Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>避免了传统通过循环 write 方式导致的内存拷贝问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>堆外内存</t>
+  </si>
+  <si>
+    <t>内存对象分配在Java虚拟机的堆以外的内存，这些内存直接受操作系统管理（而不是虚拟机），这样做的结果就是能够在一定程度上减少垃圾回收对应用程序造成的影响</t>
+  </si>
+  <si>
+    <t>NIO包下ByteBuffer来创建堆外内存。</t>
+  </si>
+  <si>
+    <t>为什么使用堆外内存</t>
+  </si>
+  <si>
+    <t>减少了垃圾回收</t>
+  </si>
+  <si>
+    <t>使用堆外内存的话，堆外内存是直接受操作系统管理( 而不是虚拟机 )。这样做的结果就是能保持一个较小的堆内内存，以减少垃圾收集对应用的影响。</t>
+  </si>
+  <si>
+    <t>提升复制速度(io效率)</t>
+  </si>
+  <si>
+    <t>堆内内存由JVM管理，属于“用户态”；而堆外内存由OS管理，属于“内核态”。如果从堆内向磁盘写数据时，</t>
+  </si>
+  <si>
+    <t>数据会被先复制到堆外内存，即内核缓冲区，然后再由OS写入磁盘，使用堆外内存避免了_x0008_这个操作。</t>
+  </si>
+  <si>
+    <t>堆外内存申请</t>
+  </si>
+  <si>
+    <r>
+      <t>JDK的ByteBuffer类提供了一个接口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allocateDirect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(int capacity)进行堆外内存的申请，底层通过unsafe.allocateMemory(size)实现。</t>
+    </r>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/pcceo1/article/details/95899920</t>
   </si>
 </sst>
 </file>
@@ -1020,6 +1339,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF555555"/>
@@ -1045,77 +1372,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1129,14 +1387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1144,22 +1395,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1175,7 +1410,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,6 +1469,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1195,6 +1514,24 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1204,7 +1541,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,31 +1565,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,6 +1595,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1264,18 +1667,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1288,31 +1679,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,61 +1691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,26 +1720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1436,11 +1735,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,21 +1786,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1489,6 +1799,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1497,10 +1816,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1509,156 +1828,162 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -2193,11 +2518,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2226,30 +2551,30 @@
       </c>
     </row>
     <row r="6" ht="15.75" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" ht="15" spans="2:3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2259,39 +2584,39 @@
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="2:3">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="2:3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="2:3">
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="15" spans="2:3">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2316,17 +2641,17 @@
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2336,7 +2661,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B41" t="s">
@@ -2344,7 +2669,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B43" t="s">
@@ -2352,47 +2677,47 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2409,145 +2734,145 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2"/>
       <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="C25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="D26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="C28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="C31" t="s">
         <v>53</v>
       </c>
@@ -2563,14 +2888,151 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:J20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A36" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
     <sheet name="RPC" sheetId="2" r:id="rId2"/>
-    <sheet name="网络" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="netty" sheetId="3" r:id="rId3"/>
+    <sheet name="基础" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -999,16 +999,28 @@
     <t>Netty 是一款基于 NIO（Nonblocking I/O，非阻塞IO）开发的网络通信框架</t>
   </si>
   <si>
+    <t>阿里分布式服务框架 Dubbo，默认使用 Netty 作为基础通信组件，还有 RocketMQ 也是使用 Netty 作为通讯的基础。</t>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/pcceo1/article/details/95899920</t>
+  </si>
+  <si>
     <t>Netty 的特点是什么？</t>
   </si>
   <si>
-    <t>高并发：Netty 是一款基于 NIO</t>
-  </si>
-  <si>
-    <t>传输快：Netty 的传输依赖于零拷贝特性，尽量减少不必要的内存拷贝，实现了更高效率的传输。</t>
-  </si>
-  <si>
-    <t>封装好：Netty 封装了 NIO 操作的很多细节，提供了易于使用调用接口。</t>
+    <t>IO 线程模型：Netty 是一款基于 NIO</t>
+  </si>
+  <si>
+    <t>内存零拷贝：Netty 的传输依赖于零拷贝特性，尽量减少不必要的内存拷贝，实现了更高效率的传输。</t>
+  </si>
+  <si>
+    <t>内存池设计：申请的内存可以重用，主要指直接内存。内部实现是用一颗二叉查找树管理内存分配情况。</t>
+  </si>
+  <si>
+    <t>串形化处理读写：避免使用锁带来的性能开销。</t>
+  </si>
+  <si>
+    <t>高性能序列化协议：支持 protobuf 等高性能序列化协议。</t>
   </si>
   <si>
     <t>什么是 Netty 的零拷贝？</t>
@@ -1018,6 +1030,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty 的接收和发送</t>
     </r>
     <r>
@@ -1113,6 +1132,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty 提供了</t>
     </r>
     <r>
@@ -1160,6 +1186,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>避免</t>
     </r>
     <r>
@@ -1186,6 +1220,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty 的文</t>
     </r>
     <r>
@@ -1283,33 +1324,161 @@
     <t>堆外内存申请</t>
   </si>
   <si>
-    <r>
-      <t>JDK的ByteBuffer类提供了一个接口</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>allocateDirect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(int capacity)进行堆外内存的申请，底层通过unsafe.allocateMemory(size)实现。</t>
-    </r>
-  </si>
-  <si>
-    <t>https://blog.csdn.net/pcceo1/article/details/95899920</t>
+    <t>JDK的ByteBuffer类提供了一个接口allocateDirect(int capacity)进行堆外内存的申请，底层通过unsafe.allocateMemory(size)实现。</t>
+  </si>
+  <si>
+    <t>Netty 和 Tomcat 的区别？</t>
+  </si>
+  <si>
+    <t>作用不同：</t>
+  </si>
+  <si>
+    <t>Tomcat 是 Servlet 容器，可以视为 Web 服务器</t>
+  </si>
+  <si>
+    <r>
+      <t>Netty 是异步</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件驱动的网络应用程序框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和工具用于简化网络编程，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP和UDP套接字服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>协议不同：</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tomcat 是基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http 协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的 Web 服务器</t>
+    </r>
+  </si>
+  <si>
+    <t>Netty 能通过编程自定义各种协议，因为 Netty 本身自己能编码/解码字节流，所有 Netty 可以实现，</t>
+  </si>
+  <si>
+    <t>HTTP 服务器、FTP 服务器、UDP 服务器、RPC 服务器、WebSocket 服务器、Redis 的 Proxy 服务器、MySQL 的 Proxy 服务器等等</t>
+  </si>
+  <si>
+    <t>Netty 中有那种重要组件？</t>
+  </si>
+  <si>
+    <t>Channel：Netty 网络操作抽象类，它除了包括基本的 I/O 操作，如 bind、connect、read、write 等。</t>
+  </si>
+  <si>
+    <t>EventLoop：主要是配合 Channel 处理 I/O 操作，用来处理连接的生命周期中所发生的事情。</t>
+  </si>
+  <si>
+    <t>ChannelFuture：Netty 框架中所有的 I/O 操作都为异步的，因此我们需要 ChannelFuture 的 addListener()注册一个</t>
+  </si>
+  <si>
+    <t>ChannelFutureListener 监听事件，当操作执行成功或者失败时，监听就会自动触发返回结果。</t>
+  </si>
+  <si>
+    <t>ChannelHandler：充当了所有处理入站和出站数据的逻辑容器。ChannelHandler 主要用来处理各种事件，</t>
+  </si>
+  <si>
+    <t>这里的事件很广泛，比如可以是连接、数据接收、异常、数据转换等。</t>
+  </si>
+  <si>
+    <t>ChannelPipeline：为 ChannelHandler 链提供了容器，当 channel 创建时，就会被自动分配到它专属的 ChannelPipeline，这个关联是永久性的。</t>
+  </si>
+  <si>
+    <t>Netty 发送消息有几种方式？</t>
+  </si>
+  <si>
+    <t>直接写入 Channel 中，消息从 ChannelPipeline 当中尾部开始移动；</t>
+  </si>
+  <si>
+    <t>写入和 ChannelHandler 绑定的 ChannelHandlerContext 中，消息从 ChannelPipeline 中的下一个 ChannelHandler 中移动。</t>
+  </si>
+  <si>
+    <t>默认情况 Netty 起多少线程？何时启动？</t>
+  </si>
+  <si>
+    <t>Netty 默认是 CPU 处理器数的两倍，bind 完之后启动。</t>
+  </si>
+  <si>
+    <t>Netty 支持哪些心跳类型设置？</t>
+  </si>
+  <si>
+    <t>readerIdleTime：为读超时时间（即测试端一定时间内未接受到被测试端消息）。</t>
+  </si>
+  <si>
+    <t>writerIdleTime：为写超时时间（即测试端一定时间内向被测试端发送消息）。</t>
+  </si>
+  <si>
+    <t>allIdleTime：所有类型的超时时间。</t>
+  </si>
+  <si>
+    <t>TCP、UDP的区别</t>
+  </si>
+  <si>
+    <t>TCP面向连接（如打电话要先拨号建立连接）;UDP是无连接的，即发送数据之前不需要建立连接</t>
+  </si>
+  <si>
+    <t>TCP连接传送的数据，无差错，不丢失，不重复，且按序到达;UDP尽最大努力交付，即不保证可靠交付</t>
+  </si>
+  <si>
+    <t>TCP面向字节流，实际上是TCP把数据看成一连串无结构的字节流;UDP是面向报文的</t>
   </si>
 </sst>
 </file>
@@ -1317,10 +1486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1373,6 +1542,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1380,67 +1556,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,6 +1578,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1478,13 +1624,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1494,15 +1633,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,7 +1686,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1529,13 +1740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1547,43 +1758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,7 +1776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,13 +1788,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,13 +1812,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1649,55 +1854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1708,54 +1877,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1785,6 +1906,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1800,11 +1963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1816,10 +1985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1828,7 +1997,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1837,7 +2006,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1846,115 +2015,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2512,7 +2681,7 @@
   <sheetPr/>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
@@ -2888,15 +3057,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2909,129 +3078,270 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="2:11">
+      <c r="B3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="K3" s="4" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="11:11">
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="3:3">
-      <c r="C13" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="3" t="s">
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
-        <v>66</v>
+      <c r="C16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="19" spans="3:3">
+      <c r="C19" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="3:3">
-      <c r="C28" t="s">
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="2" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="3" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="33" spans="3:3">
+      <c r="C33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>79</v>
+      <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A36" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920"/>
+    <hyperlink ref="K3" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920" tooltip="https://blog.csdn.net/pcceo1/article/details/95899920"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3042,14 +3352,38 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="3"/>
+    <workbookView windowWidth="25200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -121,14 +121,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>应用场景：</t>
     </r>
     <r>
@@ -139,7 +131,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>适用于连接数比较小且固定的架构，这种方式对服务器要求比较高；并发局限于应用；jdk1.4以前的唯一选择，但是程序简单易懂</t>
+      <t>适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接数比较小且固定的架构，这种方式对服务器要求比较高；并发局限于应用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；jdk1.4以前的唯一选择，但是程序简单易懂</t>
     </r>
   </si>
   <si>
@@ -319,16 +332,102 @@
     </r>
   </si>
   <si>
-    <t>应用场景：适用于连接数比较多且连接比较短（轻操作）的架构，比如聊天服务器，并发局限于应用；编程比较复杂，jdk1.4开始支持</t>
+    <r>
+      <t>应用场景：适用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连接数比较多且连接比较短（轻操作）的架构</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>聊天服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并发局限于应用；编程比较复杂，jdk1.4开始支持</t>
+    </r>
+  </si>
+  <si>
+    <t>三大核心介绍</t>
   </si>
   <si>
     <t>Buffer（缓存）</t>
   </si>
   <si>
-    <t>Channel（管道）</t>
+    <t>可以读写数据的内存块（底层是数组）</t>
   </si>
   <si>
-    <t>Selector（选择器）</t>
+    <t>Channel（管道，Socket）</t>
+  </si>
+  <si>
+    <t>Selector（选择器，多路复用）</t>
+  </si>
+  <si>
+    <t>1 每个channel都会对应一个buffer</t>
+  </si>
+  <si>
+    <t>2 selector对应一个线程，一个线程对应多个channel（连接）</t>
+  </si>
+  <si>
+    <t>3 channel需要注册到selector</t>
+  </si>
+  <si>
+    <t>4 程序切换到哪个channel是有事件Event决定</t>
+  </si>
+  <si>
+    <t>5 Selector会根据不同的事件，在各个管道上切换</t>
+  </si>
+  <si>
+    <t>6 Buffer就是一个内存块，底层是有一个数组</t>
+  </si>
+  <si>
+    <t>7 数据的读写是通过Buffer，BIO是单工，NIO双工，但是需要通过flip方法切换</t>
+  </si>
+  <si>
+    <t>8 channel是双向的</t>
+  </si>
+  <si>
+    <t>BIO,NIO区别</t>
+  </si>
+  <si>
+    <t>BIO以流的方式处理数据，NIO以块的方式处理（buffer）效率比BIO高</t>
+  </si>
+  <si>
+    <t>BIO是阻塞的，NIO是非阻塞的</t>
+  </si>
+  <si>
+    <t>BIO基于字节流和字符流操作，NIO基于Channel管道操和buffer缓冲区进行操作</t>
   </si>
   <si>
     <t>AIO：</t>
@@ -996,6 +1095,9 @@
     <t>Netty 是什么</t>
   </si>
   <si>
+    <t>JBoss的开源框架，基于事件（链接，断开，读，写等操作）驱动的网络应用框架</t>
+  </si>
+  <si>
     <t>Netty 是一款基于 NIO（Nonblocking I/O，非阻塞IO）开发的网络通信框架</t>
   </si>
   <si>
@@ -1003,6 +1105,27 @@
   </si>
   <si>
     <t>https://blog.csdn.net/pcceo1/article/details/95899920</t>
+  </si>
+  <si>
+    <t>结构：</t>
+  </si>
+  <si>
+    <t>netty</t>
+  </si>
+  <si>
+    <t>nio</t>
+  </si>
+  <si>
+    <t>jdk</t>
+  </si>
+  <si>
+    <t>tcp/ip</t>
+  </si>
+  <si>
+    <t>用到Netty的场景</t>
+  </si>
+  <si>
+    <t>分布式系统中，远程调用，异步高性能的RPC框架</t>
   </si>
   <si>
     <t>Netty 的特点是什么？</t>
@@ -1750,10 +1873,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1806,7 +1929,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1828,29 +1966,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1866,24 +1981,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,10 +2004,40 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1919,23 +2057,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1950,13 +2073,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1968,13 +2109,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1986,7 +2121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,7 +2151,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,67 +2217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,13 +2241,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2110,32 +2257,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2144,11 +2267,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2172,7 +2301,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2186,21 +2315,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2208,6 +2322,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2227,17 +2356,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2249,10 +2387,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2261,16 +2399,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2279,119 +2417,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2402,6 +2540,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2481,34 +2622,76 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>48260</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="5" name="图片 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="3695700"/>
-          <a:ext cx="5448300" cy="2315210"/>
+          <a:off x="6896100" y="3762375"/>
+          <a:ext cx="2133600" cy="2632710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>45085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="3905250"/>
+          <a:ext cx="2515235" cy="559435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2940,10 +3123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q25:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2984,19 +3167,19 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="14.25" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" ht="15" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="2" t="s">
@@ -3015,35 +3198,35 @@
     </row>
     <row r="12" ht="14.25" spans="2:3">
       <c r="B12" s="1"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" ht="14.25" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" ht="14.25" spans="2:3">
       <c r="B14" s="1"/>
-      <c r="C14" s="7"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" ht="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="14.25" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" ht="15" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
@@ -3051,104 +3234,174 @@
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>20</v>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="1" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="1" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>31</v>
+      <c r="B46" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
-        <v>33</v>
+      <c r="B48" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
-        <v>34</v>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1" t="s">
-        <v>35</v>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="2" t="s">
-        <v>36</v>
+    <row r="54" spans="1:1">
+      <c r="A54" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="2" t="s">
-        <v>37</v>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="2" t="s">
-        <v>38</v>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3172,25 +3425,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3238,19 +3491,19 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3259,37 +3512,37 @@
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3298,13 +3551,13 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3318,10 +3571,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3331,278 +3584,329 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="11:11">
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="5" spans="2:11">
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>59</v>
+        <v>73</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>60</v>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>61</v>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>82</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>68</v>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" s="1" t="s">
-        <v>70</v>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
-        <v>71</v>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
-        <v>73</v>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>74</v>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>75</v>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" t="s">
-        <v>76</v>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
-        <v>77</v>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
-        <v>78</v>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" t="s">
-        <v>79</v>
+    <row r="36" spans="3:3">
+      <c r="C36" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>80</v>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
-        <v>82</v>
+    <row r="40" spans="3:3">
+      <c r="C40" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" t="s">
-        <v>85</v>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="2" t="s">
-        <v>86</v>
+      <c r="C42" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>87</v>
+    <row r="43" spans="3:3">
+      <c r="C43" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="44" spans="3:3">
-      <c r="C44" s="2" t="s">
-        <v>88</v>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="45" spans="3:3">
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" t="s">
-        <v>90</v>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>93</v>
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>94</v>
+    <row r="51" spans="3:3">
+      <c r="C51" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
-        <v>96</v>
+    <row r="53" spans="3:3">
+      <c r="C53" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" t="s">
-        <v>98</v>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
-        <v>104</v>
+    <row r="63" spans="3:3">
+      <c r="C63" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" t="s">
-        <v>105</v>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" t="s">
-        <v>106</v>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920" tooltip="https://blog.csdn.net/pcceo1/article/details/95899920"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920" tooltip="https://blog.csdn.net/pcceo1/article/details/95899920"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3615,8 +3919,8 @@
   <sheetPr/>
   <dimension ref="A1:C16384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3626,161 +3930,161 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="1"/>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -121,6 +121,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用场景：</t>
     </r>
     <r>
@@ -333,6 +341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>应用场景：适用于</t>
     </r>
     <r>
@@ -388,7 +403,40 @@
     <t>可以读写数据的内存块（底层是数组）</t>
   </si>
   <si>
+    <t>Mark：标记</t>
+  </si>
+  <si>
+    <t>position：当前数组的索引</t>
+  </si>
+  <si>
+    <t>limit：最大读/写的当前终点（可变化）</t>
+  </si>
+  <si>
+    <t>capacity：容量（不可变）</t>
+  </si>
+  <si>
     <t>Channel（管道，Socket）</t>
+  </si>
+  <si>
+    <t>NIO中的管道是双向的，可读可写，BIO中的FileInputStream只能读</t>
+  </si>
+  <si>
+    <t>Channel是一个接口</t>
+  </si>
+  <si>
+    <t>常用类：</t>
+  </si>
+  <si>
+    <t>FileChannel:用于文件数据读写</t>
+  </si>
+  <si>
+    <t>DatagramChannel：UDP的数据读写</t>
+  </si>
+  <si>
+    <t>ServerSocketChannel：TCP</t>
+  </si>
+  <si>
+    <t>SocketChannel：TCP</t>
   </si>
   <si>
     <t>Selector（选择器，多路复用）</t>
@@ -1873,10 +1921,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1928,8 +1976,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,24 +1999,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1972,8 +2013,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1995,16 +2067,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2012,15 +2083,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,23 +2099,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,25 +2121,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,13 +2211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,43 +2253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2175,73 +2277,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2254,6 +2296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2283,25 +2331,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,11 +2356,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2341,6 +2378,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2355,30 +2427,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2387,10 +2435,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2399,16 +2447,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2417,115 +2465,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2665,15 +2713,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>391160</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45085</xdr:rowOff>
+      <xdr:colOff>324485</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168910</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2690,7 +2738,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="3905250"/>
+          <a:off x="3981450" y="3686175"/>
           <a:ext cx="2515235" cy="559435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3123,13 +3171,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q25:Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -3253,23 +3301,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
+    <row r="26" spans="3:3">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
+    <row r="27" spans="3:3">
+      <c r="C27" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3278,130 +3326,185 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" t="s">
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="47" spans="2:2">
+      <c r="B47" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
         <v>42</v>
-      </c>
-      <c r="B52" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="2" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="2" t="s">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B70" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="2" t="s">
-        <v>52</v>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3425,25 +3528,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3491,19 +3594,19 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3512,37 +3615,37 @@
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3551,13 +3654,13 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3584,69 +3687,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -3656,252 +3759,252 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3930,161 +4033,161 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="1"/>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -464,6 +464,21 @@
   </si>
   <si>
     <t>8 channel是双向的</t>
+  </si>
+  <si>
+    <t>selector相关方法</t>
+  </si>
+  <si>
+    <t>selector.select()：阻塞</t>
+  </si>
+  <si>
+    <t>selector.select(1000)：阻塞1000毫秒，在1000毫秒后返回</t>
+  </si>
+  <si>
+    <t>selector.wakeup()：唤醒selector</t>
+  </si>
+  <si>
+    <t>selector.selectNow()：不阻塞，立马返回</t>
   </si>
   <si>
     <t>BIO,NIO区别</t>
@@ -1984,23 +1999,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,9 +2020,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2030,30 +2036,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2074,17 +2057,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2098,6 +2081,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2105,8 +2096,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2121,7 +2136,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2133,31 +2232,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2175,79 +2274,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2259,49 +2310,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2330,6 +2345,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2348,17 +2372,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2378,13 +2393,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2393,7 +2412,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2413,17 +2432,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2435,10 +2450,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2447,16 +2462,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2465,115 +2480,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3171,10 +3186,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3366,145 +3381,170 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+    <row r="46" spans="3:3">
+      <c r="C46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+    <row r="47" spans="3:3">
+      <c r="C47" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+    <row r="48" spans="3:3">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
+    <row r="49" spans="3:3">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="50" spans="3:3">
+      <c r="C50" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="51" spans="3:3">
+      <c r="C51" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="52" spans="3:3">
+      <c r="C52" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" t="s">
+    <row r="53" spans="3:3">
+      <c r="C53" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1" t="s">
+    <row r="54" spans="3:3">
+      <c r="C54" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" t="s">
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
         <v>51</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1" t="s">
+    <row r="74" spans="2:2">
+      <c r="B74" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="2" t="s">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1" t="s">
+      <c r="B78" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="2" t="s">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="2" t="s">
+      <c r="B80" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="1" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3528,25 +3568,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3594,19 +3634,19 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3615,37 +3655,37 @@
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3654,13 +3694,13 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3687,69 +3727,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -3759,252 +3799,252 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4033,161 +4073,161 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="1"/>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="25200" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -448,6 +448,9 @@
     <t>2 selector对应一个线程，一个线程对应多个channel（连接）</t>
   </si>
   <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                              </t>
+  </si>
+  <si>
     <t>3 channel需要注册到selector</t>
   </si>
   <si>
@@ -479,6 +482,9 @@
   </si>
   <si>
     <t>selector.selectNow()：不阻塞，立马返回</t>
+  </si>
+  <si>
+    <t>通过selectKey来获取channel</t>
   </si>
   <si>
     <t>BIO,NIO区别</t>
@@ -1937,8 +1943,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1991,8 +1997,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2000,21 +2013,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,21 +2035,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2057,9 +2056,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2073,32 +2072,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2112,8 +2103,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2121,7 +2120,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2136,25 +2142,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2172,19 +2208,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,91 +2268,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,25 +2292,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2348,8 +2354,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2371,48 +2392,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2434,11 +2418,33 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2450,10 +2456,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2462,16 +2468,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2480,115 +2486,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2755,6 +2761,48 @@
         <a:xfrm>
           <a:off x="3981450" y="3686175"/>
           <a:ext cx="2515235" cy="559435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600825" y="6953250"/>
+          <a:ext cx="8915400" cy="5181600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3186,13 +3234,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:D58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -3386,165 +3434,173 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
+    <row r="47" spans="3:19">
       <c r="C47" t="s">
         <v>36</v>
+      </c>
+      <c r="S47" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3568,25 +3624,25 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -3634,19 +3690,19 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -3655,37 +3711,37 @@
     <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1"/>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -3694,13 +3750,13 @@
     <row r="30" spans="1:2">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1"/>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3727,69 +3783,69 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -3799,252 +3855,252 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="2:2">
       <c r="B71" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4073,161 +4129,161 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" customFormat="1"/>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240"/>
+    <workbookView windowWidth="25200" windowHeight="12240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
     <sheet name="RPC" sheetId="2" r:id="rId2"/>
     <sheet name="netty" sheetId="3" r:id="rId3"/>
     <sheet name="基础" sheetId="4" r:id="rId4"/>
+    <sheet name="NIO" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="247">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1673,6 +1674,198 @@
   </si>
   <si>
     <t>allIdleTime：所有类型的超时时间。</t>
+  </si>
+  <si>
+    <t>netty线程模型</t>
+  </si>
+  <si>
+    <t>目前存在的线程模型：</t>
+  </si>
+  <si>
+    <t>传统阻塞的IO线程模型</t>
+  </si>
+  <si>
+    <t>Reactor模型</t>
+  </si>
+  <si>
+    <t>Reactor模式</t>
+  </si>
+  <si>
+    <t>通过一个或多个输入请求，同事传给服处理器（基于事件驱动）</t>
+  </si>
+  <si>
+    <t>服务器端程序处理传入的多个请求，并将它们同步分派到相应的处理线程</t>
+  </si>
+  <si>
+    <t>使用了IO复用监听事件，分发给某个线程，网络服务高并发处理框架</t>
+  </si>
+  <si>
+    <t>3种类型：</t>
+  </si>
+  <si>
+    <t>单线程</t>
+  </si>
+  <si>
+    <t>多线程</t>
+  </si>
+  <si>
+    <t>主从多线程（netty）</t>
+  </si>
+  <si>
+    <t>Reactor单线程（NIO）</t>
+  </si>
+  <si>
+    <t>服务器端用一个线程通过多路复用搞定所有的IO操作（连接，读，写）</t>
+  </si>
+  <si>
+    <t>但是如果客户端连接数量较多，无法支撑，所以不支持高并发</t>
+  </si>
+  <si>
+    <t>使用场景：Client数量有限，Server业务处理快速</t>
+  </si>
+  <si>
+    <t>Reactor多线程（NIO）</t>
+  </si>
+  <si>
+    <t>1.Reactor对象通过select监控客户端请求事件，收到事件后，通过dispatch进行分发</t>
+  </si>
+  <si>
+    <t>2.如果简历链接请求，则由acceptor通过accept处理链接请求，创建一个Handler对象</t>
+  </si>
+  <si>
+    <t>处理完成连接后的各种事件</t>
+  </si>
+  <si>
+    <t>3.如果不是链接请求，则由reactor分发调用连接对应的Handler来处理</t>
+  </si>
+  <si>
+    <t>4.Handler只负责响应事件，不做具体的业务处理，通过read读取数据后，会分发给后面的worker</t>
+  </si>
+  <si>
+    <t>线程池的某个线程处理业务</t>
+  </si>
+  <si>
+    <t>5.worker线程池分配独立线程完成真正的业务，并将结果返回给Handler</t>
+  </si>
+  <si>
+    <t>6.Handler收到响应后，通过send将结果返回给client</t>
+  </si>
+  <si>
+    <t>优缺点：</t>
+  </si>
+  <si>
+    <t>可以充分的利用多和cpu的处理能力来进行业务处理</t>
+  </si>
+  <si>
+    <t>但是Reactor处理所有的时间的监听和响应，在单线程运行，在高并发场景容易出现性能瓶颈</t>
+  </si>
+  <si>
+    <t>Reactor主从多线程</t>
+  </si>
+  <si>
+    <t>1 Reactor主线程MainReactor对象通过select监听连接事件后，通过acceptor处理连接事件</t>
+  </si>
+  <si>
+    <t>2.当acceptor处理连接事件后，mainreactor将连接分配给subreactor</t>
+  </si>
+  <si>
+    <t>3.subrector将连接加入到连接队列进行监控，并创建handler进行各种事件处理</t>
+  </si>
+  <si>
+    <t>4.当有新事件发生时，subreactor就会调用对应的handler处理</t>
+  </si>
+  <si>
+    <t>5.Handler通过read读取数据，分发给后面的worker线程处理</t>
+  </si>
+  <si>
+    <t>6.worker线程池分配独立的worker线程进行业务处理，并返回结果</t>
+  </si>
+  <si>
+    <t>7.Handler收到响应的结果后，在通过send将结果返回给client</t>
+  </si>
+  <si>
+    <t>8.Reactor主线程可以对应多个Reactor子线程，MainRecator可以关联多个SubReactor</t>
+  </si>
+  <si>
+    <t>Netty模型</t>
+  </si>
+  <si>
+    <t>1.BossGroup线程维护了Selector，只关注Acceptor</t>
+  </si>
+  <si>
+    <t>2.当接收到Accept事件，获取到对应的SocketChannel，封装NIOSocketChannel并注册到Worker线程，进行维护</t>
+  </si>
+  <si>
+    <t>3.当Worker线程监听到Selector中通道发生自己感兴趣的事件后，就进行处理</t>
+  </si>
+  <si>
+    <t>就由Handler处理，注意Handler已经加入到通道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1.Netty抽象出来两个线程池</t>
+  </si>
+  <si>
+    <t>BossGroup专门负责接收客户端的连接</t>
+  </si>
+  <si>
+    <t>WorkerGroup专门负责网络的读写</t>
+  </si>
+  <si>
+    <t>2.BossGroup和WorkerGroup类型都是NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>3.NioEventLoopGroup相当于一个事件循环组，这个组中含有多个事件循环</t>
+  </si>
+  <si>
+    <t>每一个事件循环都是NioEventLoop</t>
+  </si>
+  <si>
+    <t>4.NioEventLoop表示一个不断循环的执行处理任务的线程，每个NioEventLoop</t>
+  </si>
+  <si>
+    <t>都有一个selector，用于监听绑定在其上的socket的网络通讯</t>
+  </si>
+  <si>
+    <t>5.NioEventLoop可以有多个线程，即可以含有多个NioEventLoop</t>
+  </si>
+  <si>
+    <t>6.每个Boss NioEventLoop循环执行的步骤有3步</t>
+  </si>
+  <si>
+    <t>轮训accept事件</t>
+  </si>
+  <si>
+    <t>处理accept事件，与client简历连接，生成NioEventLoop,并将其</t>
+  </si>
+  <si>
+    <t>注册到worker NioEventLoop上的selector</t>
+  </si>
+  <si>
+    <t>处理任务队列的任务（runAllTasks）</t>
+  </si>
+  <si>
+    <t>7.每个Worker NioEventLoop循环执行的步骤</t>
+  </si>
+  <si>
+    <t>轮训read,write事件</t>
+  </si>
+  <si>
+    <t>处理read,write事件，对应的NioEventLoop处理</t>
+  </si>
+  <si>
+    <t>处理任务队列的任务，runAllTAsks</t>
+  </si>
+  <si>
+    <t>8.每个Worker NioEventLoop处理业务时，会使用pipeline管道，</t>
+  </si>
+  <si>
+    <t>管道中包含了channel，通过管道可以获取到对应通道</t>
+  </si>
+  <si>
+    <t>管道中维护了多个处理器</t>
   </si>
   <si>
     <t>TCP、UDP的区别</t>
@@ -1936,6 +2129,68 @@
   <si>
     <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender需要配合起来使用，其实本质上来讲，这两者一个是解码，一个是编码的关系。</t>
   </si>
+  <si>
+    <t>零拷贝（没有CPU的拷贝）</t>
+  </si>
+  <si>
+    <t>一次正常的文件读写拷贝：4次转换，3次读写来实现</t>
+  </si>
+  <si>
+    <t>DMA:direct memory access 直接内存拷贝不适用CPU</t>
+  </si>
+  <si>
+    <t>memorymap（内存映射）</t>
+  </si>
+  <si>
+    <r>
+      <t>通过内存映射，将文件映射到内核缓冲区，同事，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户空间可以共享内核空间的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>这样在进行网络传输时，就可以减少内核空间到用户空间的拷贝次数（减少1次拷贝）</t>
+  </si>
+  <si>
+    <t>sendFile</t>
+  </si>
+  <si>
+    <t>有一次cpu的拷贝，但是kernel buffer到socket buffer拷贝的信息很少，比如length,offset，几乎可以忽略</t>
+  </si>
+  <si>
+    <t>避免了从内核缓冲区拷贝到SocketBuffer的操作，直接拷贝到协议栈，从而再一次减少了数据拷贝</t>
+  </si>
+  <si>
+    <t>memorymap和sendFile区别</t>
+  </si>
+  <si>
+    <t>mmap适合小数据量读写，sendFile适合大文件传输</t>
+  </si>
+  <si>
+    <t>mmap需要4次上下文切换，3次数据拷贝；sendFile需要3次上下文切换，最少需要两次数据拷贝</t>
+  </si>
+  <si>
+    <t>sendFile可以利用DMA方式，减少CPU拷贝，mmap则不能（必须从内核拷贝到Socket缓冲区）</t>
+  </si>
 </sst>
 </file>
 
@@ -1943,8 +2198,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1998,7 +2253,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2013,21 +2282,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,7 +2290,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2058,7 +2336,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2072,14 +2350,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2089,7 +2359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2097,22 +2367,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2127,7 +2382,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2142,7 +2397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,37 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,103 +2451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2310,7 +2469,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2322,7 +2505,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,11 +2647,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2418,18 +2671,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2448,6 +2694,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2456,10 +2711,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2468,16 +2723,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2486,115 +2741,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2947,6 +3202,394 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6696075" y="12134850"/>
+          <a:ext cx="5657850" cy="3314700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5972175" y="16116300"/>
+          <a:ext cx="5153025" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753225" y="19478625"/>
+          <a:ext cx="5143500" cy="4714875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="24660225"/>
+          <a:ext cx="4629150" cy="4514850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>455295</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="30013275"/>
+          <a:ext cx="5941695" cy="1867535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6172200" y="32404050"/>
+          <a:ext cx="5553075" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="552450"/>
+          <a:ext cx="7877175" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="3076575"/>
+          <a:ext cx="7029450" cy="1685925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="5829300"/>
+          <a:ext cx="3400425" cy="2438400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3236,8 +3879,8 @@
   <sheetPr/>
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3770,10 +4413,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C186" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4103,13 +4746,334 @@
         <v>147</v>
       </c>
     </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2">
+      <c r="B183" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2">
+      <c r="B184" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2">
+      <c r="B186" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2">
+      <c r="B188" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4">
+      <c r="D192" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2">
+      <c r="B194" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://blog.csdn.net/pcceo1/article/details/95899920" tooltip="https://blog.csdn.net/pcceo1/article/details/95899920"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://blog.csdn.net/pcceo1/article/details/95899920" tooltip="https://blog.csdn.net/pcceo1/article/details/95899920"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4129,68 +5093,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -4243,47 +5207,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -20639,4 +21603,90 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="293">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1802,9 +1802,6 @@
     <t>就由Handler处理，注意Handler已经加入到通道</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>1.Netty抽象出来两个线程池</t>
   </si>
   <si>
@@ -1866,6 +1863,147 @@
   </si>
   <si>
     <t>管道中维护了多个处理器</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>本质是一个双向链表</t>
+  </si>
+  <si>
+    <t>Netty任务队列有3中</t>
+  </si>
+  <si>
+    <t>普通任务 TaskQueue</t>
+  </si>
+  <si>
+    <t>定时任务 scheduledTaskQueue</t>
+  </si>
+  <si>
+    <t>非当前Reactor线程调用Channel的各种方法</t>
+  </si>
+  <si>
+    <t>ChannelFuture</t>
+  </si>
+  <si>
+    <t>接受异步IO操作的结果，可以通过它提供的方法来检测执行是否完成，比如检测计算等等</t>
+  </si>
+  <si>
+    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
+  </si>
+  <si>
+    <t>Future-Listener机制</t>
+  </si>
+  <si>
+    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
+  </si>
+  <si>
+    <t>注册监听函数来执行完成后的操作</t>
+  </si>
+  <si>
+    <t>相比传统阻塞IO，执行IO操作后线程会被阻塞住，知道操作完成</t>
+  </si>
+  <si>
+    <t>异步处理好处是不会造成线程阻塞，线程在IO操作期间可以执行别的程序</t>
+  </si>
+  <si>
+    <t>ByteBuf</t>
+  </si>
+  <si>
+    <t>Netty里的内存管理是通过ByteBuf这个类作为桥梁连接着业务代码与jdk底层的内存。</t>
+  </si>
+  <si>
+    <t>handler()和childHandler()的主要区别</t>
+  </si>
+  <si>
+    <t>handler()对应的是bossGroup，是发生在初始化的时候，</t>
+  </si>
+  <si>
+    <t>childHandler()对应的是workerGroup，是发生在客户端连接之后。</t>
+  </si>
+  <si>
+    <t>Bootstrap,ServerBootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap用于配置Netty启动类，Bootstrap用于客户端配置，ServerBootstrap用户服务端配置</t>
+  </si>
+  <si>
+    <t>Bootstrap参数说明</t>
+  </si>
+  <si>
+    <t>group:</t>
+  </si>
+  <si>
+    <t>Server配置时需要传入两个EvenLoopGroup，一个boss，一个worker</t>
+  </si>
+  <si>
+    <t>客户端配置时只要一个EvenLoopGroup</t>
+  </si>
+  <si>
+    <t>channel：用来设置一个服务器端的通道实现</t>
+  </si>
+  <si>
+    <t>option：用来给ServerChannel添加配置</t>
+  </si>
+  <si>
+    <t>childOption：用来给接收到的通道添加配置</t>
+  </si>
+  <si>
+    <t>childHandler：用来设置业务处理类（自定义的Handler，需要创建一个通道初始化对象ChannelInitializer）</t>
+  </si>
+  <si>
+    <t>bind：用于服务器端，用来设置占用的端口号</t>
+  </si>
+  <si>
+    <t>connect：用于客户端，用来连接服务器端</t>
+  </si>
+  <si>
+    <t>ChannelHandler</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandler：处理入栈IO事件（读）</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandler：处理出栈IO事件(写）</t>
+  </si>
+  <si>
+    <t>适配器：</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandlerAdapter：处理入栈IO事件</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandlerAdapter：处理出栈IO事件</t>
+  </si>
+  <si>
+    <t>出栈入栈的说明：</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从客户端到服务器端，称为出栈ChannelOutboundHandler</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从服务器端到客户端，称为入栈ChannelInboundHandler</t>
+  </si>
+  <si>
+    <t>pipeline，ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelPipeline：Handler集合，负责处理和拦截inbound/outbound的事件和操作，相当于Netty链</t>
+  </si>
+  <si>
+    <t>一个Channel包含一个ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelPipeline中维护了一个由ChannelHandlerContext组成的双向链表</t>
+  </si>
+  <si>
+    <t>每个ChannelHandlerContext中关联了一个ChannelHandler</t>
+  </si>
+  <si>
+    <t>入站事件从链表的head往后传递到最后一个入站的handler</t>
+  </si>
+  <si>
+    <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
   </si>
   <si>
     <t>TCP、UDP的区别</t>
@@ -2143,6 +2281,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过内存映射，将文件映射到内核缓冲区，同事，</t>
     </r>
     <r>
@@ -2197,10 +2342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2267,7 +2412,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2281,8 +2462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2304,13 +2486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2319,22 +2494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2358,13 +2517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2374,13 +2526,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2397,43 +2542,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,13 +2572,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,13 +2596,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,13 +2692,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,73 +2722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,6 +2761,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2630,17 +2790,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2671,35 +2831,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2711,10 +2856,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2723,16 +2868,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2741,115 +2886,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3456,6 +3601,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="46424850"/>
+          <a:ext cx="4029075" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="49101375"/>
+          <a:ext cx="6038850" cy="1630045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4413,10 +4642,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186"/>
+    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="N290" sqref="N290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4956,114 +5185,344 @@
         <v>189</v>
       </c>
     </row>
-    <row r="179" spans="6:6">
-      <c r="F179" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="181" spans="3:3">
       <c r="C181" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="190" spans="3:3">
       <c r="C190" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="191" spans="3:3">
       <c r="C191" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="192" spans="4:4">
       <c r="D192" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="3:3">
       <c r="C193" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="195" spans="3:3">
       <c r="C195" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="3:3">
       <c r="C196" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="197" spans="3:3">
       <c r="C197" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="200" spans="3:3">
       <c r="C200" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="1" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2">
+      <c r="B235" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2">
+      <c r="B236" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2">
+      <c r="B242" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2">
+      <c r="B243" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2">
+      <c r="B298" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2">
+      <c r="B299" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2">
+      <c r="B300" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2">
+      <c r="B303" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5093,68 +5552,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>220</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -5207,47 +5666,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>232</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>233</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -21621,67 +22080,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>239</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="307">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1961,28 +1961,28 @@
     <t>ChannelHandler</t>
   </si>
   <si>
-    <t>ChannelInboundHandler：处理入栈IO事件（读）</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandler：处理出栈IO事件(写）</t>
+    <t>ChannelInboundHandler：处理入站IO事件（读）</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandler：处理出站IO事件(写）</t>
   </si>
   <si>
     <t>适配器：</t>
   </si>
   <si>
-    <t>ChannelInboundHandlerAdapter：处理入栈IO事件</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandlerAdapter：处理出栈IO事件</t>
+    <t>ChannelInboundHandlerAdapter：处理入站IO事件</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandlerAdapter：处理出站IO事件</t>
   </si>
   <si>
     <t>出栈入栈的说明：</t>
   </si>
   <si>
-    <t>事件的运动方向是从客户端到服务器端，称为出栈ChannelOutboundHandler</t>
-  </si>
-  <si>
-    <t>事件的运动方向是从服务器端到客户端，称为入栈ChannelInboundHandler</t>
+    <t>事件的运动方向是从客户端到服务器端，称为出站ChannelOutboundHandler</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从服务器端到客户端，称为入站ChannelInboundHandler</t>
   </si>
   <si>
     <t>pipeline，ChannelPipeline</t>
@@ -2004,6 +2004,48 @@
   </si>
   <si>
     <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>实际类型是DefaultChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>保存Channel相关的所有上下文信息，同事关联一个ChannelHandler对象</t>
+  </si>
+  <si>
+    <t>包含一个具体的时间处理器ChannelHandler</t>
+  </si>
+  <si>
+    <t>也绑定了对应的pipeline和Channel的信息，方便对ChannelHandler调用</t>
+  </si>
+  <si>
+    <t>ChannelOption</t>
+  </si>
+  <si>
+    <t>创建Channel实例后需要设置ChannelOption参数</t>
+  </si>
+  <si>
+    <t>SO_BROADCAST：初始化服务器可连接队列大小</t>
+  </si>
+  <si>
+    <t>SO_KEEPALIVE：一直保持连接活动状态</t>
+  </si>
+  <si>
+    <t>EvenLoopGroup/NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>EvenLoopGrou是一组EventLoop的抽象，Netty为了更好的利用多和CPU资源，一般会有多个EventLoop同事工作</t>
+  </si>
+  <si>
+    <t>每个EventLoop维护一个Selector实例</t>
+  </si>
+  <si>
+    <t>Unpooled</t>
+  </si>
+  <si>
+    <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
   </si>
   <si>
     <t>TCP、UDP的区别</t>
@@ -2343,9 +2385,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2398,12 +2440,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2412,7 +2509,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2434,14 +2539,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2455,79 +2568,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2542,25 +2584,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,127 +2650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2716,13 +2674,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2751,15 +2793,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2771,6 +2804,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2790,17 +2832,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,8 +2846,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2832,19 +2870,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2856,10 +2898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2868,16 +2910,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2886,115 +2928,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3685,6 +3727,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="54521100"/>
+          <a:ext cx="7248525" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4642,10 +4726,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K303"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="N290" sqref="N290"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="B336" sqref="B336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5523,6 +5607,76 @@
     <row r="303" spans="2:2">
       <c r="B303" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2">
+      <c r="B306" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2">
+      <c r="B307" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2">
+      <c r="B308" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2">
+      <c r="B309" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2">
+      <c r="B312" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2">
+      <c r="B313" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2">
+      <c r="B314" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2">
+      <c r="B318" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2">
+      <c r="B336" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5552,68 +5706,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -5666,47 +5820,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -22080,67 +22234,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="315">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -2046,6 +2046,30 @@
   </si>
   <si>
     <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
+  </si>
+  <si>
+    <t>Netty心跳</t>
+  </si>
+  <si>
+    <t>netty 提供的 IdleStateHandler三个参数</t>
+  </si>
+  <si>
+    <t>long readerIdleTime : 表示多长时间没有读, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long writerIdleTime : 表示多长时间没有写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long allIdleTime : 表示多长时间没有读写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>在一段时间内读取，写入或读写同时执行的操作没有执行的时候，触发IdleStateEvent</t>
+  </si>
+  <si>
+    <t>当 IdleStateEvent 触发后 , 就会传递给管道 的下一个handler去处理</t>
+  </si>
+  <si>
+    <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
   </si>
   <si>
     <t>TCP、UDP的区别</t>
@@ -2384,10 +2408,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2439,15 +2463,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2462,16 +2511,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2479,15 +2527,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2495,6 +2549,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,24 +2576,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2544,36 +2598,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -2581,6 +2605,54 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2596,25 +2668,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2626,37 +2704,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,7 +2734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,13 +2752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,43 +2764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,18 +2789,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2794,16 +2818,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2834,44 +2858,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2890,6 +2894,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2898,10 +2922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2910,16 +2934,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2928,115 +2952,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4726,10 +4750,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="B336" sqref="B336"/>
+    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
+      <selection activeCell="S317" sqref="S317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5677,6 +5701,46 @@
     <row r="336" spans="2:2">
       <c r="B336" t="s">
         <v>271</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1">
+      <c r="A338" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2">
+      <c r="B339" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2">
+      <c r="B340" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2">
+      <c r="B341" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2">
+      <c r="B342" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2">
+      <c r="B343" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5706,68 +5770,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -5820,47 +5884,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -22234,67 +22298,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="9570" windowHeight="7740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="329">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -2070,6 +2070,48 @@
   </si>
   <si>
     <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
+  </si>
+  <si>
+    <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
+  </si>
+  <si>
+    <t>doReadMessages</t>
+  </si>
+  <si>
+    <t>fireChannelRead</t>
+  </si>
+  <si>
+    <t>ChannelPipeline调度Handle</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext源码分析</t>
+  </si>
+  <si>
+    <t>Netty心跳源码解析（IdleStateHandler)</t>
+  </si>
+  <si>
+    <t>核心4个熟悉</t>
+  </si>
+  <si>
+    <t>observerOutput：是否考虑出站慢的情况，默认是false</t>
+  </si>
+  <si>
+    <t>因为在网络传输的时候可能因为网络问题传输速度比设定的超时时间长，但实际网络没有断开，</t>
+  </si>
+  <si>
+    <t>observerOutput就是用于这类情况</t>
+  </si>
+  <si>
+    <t>Eventloop源码</t>
+  </si>
+  <si>
+    <t>继承图</t>
+  </si>
+  <si>
+    <t>handler中加入线程池和Context中添加线程池源码</t>
   </si>
   <si>
     <t>TCP、UDP的区别</t>
@@ -2408,10 +2450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2463,9 +2505,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2479,8 +2527,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2495,8 +2603,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2511,21 +2627,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -2534,66 +2635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2608,43 +2650,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2662,6 +2680,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2674,25 +2770,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,91 +2824,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2818,30 +2860,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2860,7 +2878,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2876,6 +2920,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2897,17 +2950,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2922,10 +2964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2934,16 +2976,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2952,115 +2994,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4750,10 +4792,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K345"/>
+  <dimension ref="A1:K371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="S317" sqref="S317"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="A372" sqref="A372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5741,6 +5783,81 @@
     <row r="345" spans="3:3">
       <c r="C345" t="s">
         <v>279</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1">
+      <c r="A347" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2">
+      <c r="B349" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="1" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5770,68 +5887,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -5884,47 +6001,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -22298,67 +22415,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9570" windowHeight="7740" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="329">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -2450,10 +2450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2506,29 +2506,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2543,15 +2535,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2566,53 +2565,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2628,16 +2581,63 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2650,13 +2650,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2674,25 +2698,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2704,19 +2728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2728,73 +2752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2812,13 +2770,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2830,7 +2788,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2859,17 +2859,65 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,64 +2943,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2964,10 +2964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2976,16 +2976,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,115 +2994,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3835,6 +3835,90 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>390</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="64122300"/>
+          <a:ext cx="4800600" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>385</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="63055500"/>
+          <a:ext cx="7362825" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4792,10 +4876,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K371"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="A372" sqref="A372"/>
+      <selection activeCell="N360" sqref="N360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5858,6 +5942,11 @@
     <row r="371" spans="1:1">
       <c r="A371" s="1" t="s">
         <v>293</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -2073,6 +2073,39 @@
   </si>
   <si>
     <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
+  </si>
+  <si>
+    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
+  </si>
+  <si>
+    <t>3.通过 bind 方法启动，内部重要方法为 initAndRegister 和 dobind 方法。</t>
+  </si>
+  <si>
+    <t>4.initAndRegister 方法会反射创建 NioServerSocketChannel 及其相关的 NIO 的对象， pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
+  </si>
+  <si>
+    <t>同时也含有NioServerSocketChannelConfig 对象。然后向 pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
+  </si>
+  <si>
+    <t>这个处理器用于分配接受的 请求给 worker 线程池。</t>
+  </si>
+  <si>
+    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
+  </si>
+  <si>
+    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
+  </si>
+  <si>
+    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
+  </si>
+  <si>
+    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
+  </si>
+  <si>
+    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
   </si>
   <si>
     <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
@@ -2506,13 +2539,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2520,14 +2546,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2549,23 +2620,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,14 +2646,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2602,42 +2666,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2650,13 +2683,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2668,13 +2743,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,85 +2761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2782,7 +2785,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2794,25 +2827,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2824,13 +2857,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2859,6 +2892,71 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2878,36 +2976,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2921,41 +2989,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2964,10 +2997,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2976,16 +3009,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2994,115 +3027,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3839,13 +3872,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>386</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>402</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3863,7 +3896,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="64122300"/>
+          <a:off x="685800" y="66179700"/>
           <a:ext cx="4800600" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3881,13 +3914,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>385</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3905,7 +3938,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="63055500"/>
+          <a:off x="6838950" y="65112900"/>
           <a:ext cx="7362825" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4876,10 +4909,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K374"/>
+  <dimension ref="A1:K386"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="N360" sqref="N360"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="G350" sqref="G350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5874,8 +5907,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="348" spans="1:1">
-      <c r="A348" s="1" t="s">
+    <row r="348" spans="2:2">
+      <c r="B348" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5889,63 +5922,118 @@
         <v>283</v>
       </c>
     </row>
-    <row r="352" spans="1:1">
-      <c r="A352" s="1" t="s">
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="355" spans="1:1">
-      <c r="A355" s="1" t="s">
+    <row r="352" spans="3:3">
+      <c r="C352" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1">
+      <c r="A360" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="361" spans="2:2">
+      <c r="B361" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1">
+      <c r="A364" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="358" spans="1:1">
-      <c r="A358" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
-      <c r="A362" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2">
-      <c r="B363" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2">
-      <c r="B364" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="365" spans="3:3">
-      <c r="C365" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="366" spans="3:3">
-      <c r="C366" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
-      <c r="A368" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2">
-      <c r="B369" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
-      <c r="A371" s="1" t="s">
-        <v>293</v>
+    <row r="370" spans="1:1">
+      <c r="A370" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2">
+      <c r="B375" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2">
+      <c r="B381" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5976,68 +6064,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -6090,47 +6178,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -22504,67 +22592,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="IO" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="353">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1679,25 +1679,22 @@
     <t>netty线程模型</t>
   </si>
   <si>
-    <t>目前存在的线程模型：</t>
-  </si>
-  <si>
     <t>传统阻塞的IO线程模型</t>
   </si>
   <si>
     <t>Reactor模型</t>
   </si>
   <si>
-    <t>Reactor模式</t>
-  </si>
-  <si>
-    <t>通过一个或多个输入请求，同事传给服处理器（基于事件驱动）</t>
-  </si>
-  <si>
-    <t>服务器端程序处理传入的多个请求，并将它们同步分派到相应的处理线程</t>
-  </si>
-  <si>
-    <t>使用了IO复用监听事件，分发给某个线程，网络服务高并发处理框架</t>
+    <t>Reactor模式（反应，分发）</t>
+  </si>
+  <si>
+    <t>通过IO复用监听每个请求的事件，然后分发给某个线程，网络服务高并发处理框架</t>
+  </si>
+  <si>
+    <t>多个请求同时传给ServiceHandler</t>
+  </si>
+  <si>
+    <t>ServiceHandler处理传入的多个请求，并将它们同步分派到相应的处理线程</t>
   </si>
   <si>
     <t>3种类型：</t>
@@ -1712,16 +1709,7 @@
     <t>主从多线程（netty）</t>
   </si>
   <si>
-    <t>Reactor单线程（NIO）</t>
-  </si>
-  <si>
-    <t>服务器端用一个线程通过多路复用搞定所有的IO操作（连接，读，写）</t>
-  </si>
-  <si>
-    <t>但是如果客户端连接数量较多，无法支撑，所以不支持高并发</t>
-  </si>
-  <si>
-    <t>使用场景：Client数量有限，Server业务处理快速</t>
+    <t>Reactor单线程（NIO）群聊例子</t>
   </si>
   <si>
     <t>Reactor多线程（NIO）</t>
@@ -1757,438 +1745,9 @@
     <t>可以充分的利用多和cpu的处理能力来进行业务处理</t>
   </si>
   <si>
-    <t>但是Reactor处理所有的时间的监听和响应，在单线程运行，在高并发场景容易出现性能瓶颈</t>
-  </si>
-  <si>
-    <t>Reactor主从多线程</t>
-  </si>
-  <si>
-    <t>1 Reactor主线程MainReactor对象通过select监听连接事件后，通过acceptor处理连接事件</t>
-  </si>
-  <si>
-    <t>2.当acceptor处理连接事件后，mainreactor将连接分配给subreactor</t>
-  </si>
-  <si>
-    <t>3.subrector将连接加入到连接队列进行监控，并创建handler进行各种事件处理</t>
-  </si>
-  <si>
-    <t>4.当有新事件发生时，subreactor就会调用对应的handler处理</t>
-  </si>
-  <si>
-    <t>5.Handler通过read读取数据，分发给后面的worker线程处理</t>
-  </si>
-  <si>
-    <t>6.worker线程池分配独立的worker线程进行业务处理，并返回结果</t>
-  </si>
-  <si>
-    <t>7.Handler收到响应的结果后，在通过send将结果返回给client</t>
-  </si>
-  <si>
-    <t>8.Reactor主线程可以对应多个Reactor子线程，MainRecator可以关联多个SubReactor</t>
-  </si>
-  <si>
-    <t>Netty模型</t>
-  </si>
-  <si>
-    <t>1.BossGroup线程维护了Selector，只关注Acceptor</t>
-  </si>
-  <si>
-    <t>2.当接收到Accept事件，获取到对应的SocketChannel，封装NIOSocketChannel并注册到Worker线程，进行维护</t>
-  </si>
-  <si>
-    <t>3.当Worker线程监听到Selector中通道发生自己感兴趣的事件后，就进行处理</t>
-  </si>
-  <si>
-    <t>就由Handler处理，注意Handler已经加入到通道</t>
-  </si>
-  <si>
-    <t>1.Netty抽象出来两个线程池</t>
-  </si>
-  <si>
-    <t>BossGroup专门负责接收客户端的连接</t>
-  </si>
-  <si>
-    <t>WorkerGroup专门负责网络的读写</t>
-  </si>
-  <si>
-    <t>2.BossGroup和WorkerGroup类型都是NioEventLoopGroup</t>
-  </si>
-  <si>
-    <t>3.NioEventLoopGroup相当于一个事件循环组，这个组中含有多个事件循环</t>
-  </si>
-  <si>
-    <t>每一个事件循环都是NioEventLoop</t>
-  </si>
-  <si>
-    <t>4.NioEventLoop表示一个不断循环的执行处理任务的线程，每个NioEventLoop</t>
-  </si>
-  <si>
-    <t>都有一个selector，用于监听绑定在其上的socket的网络通讯</t>
-  </si>
-  <si>
-    <t>5.NioEventLoop可以有多个线程，即可以含有多个NioEventLoop</t>
-  </si>
-  <si>
-    <t>6.每个Boss NioEventLoop循环执行的步骤有3步</t>
-  </si>
-  <si>
-    <t>轮训accept事件</t>
-  </si>
-  <si>
-    <t>处理accept事件，与client简历连接，生成NioEventLoop,并将其</t>
-  </si>
-  <si>
-    <t>注册到worker NioEventLoop上的selector</t>
-  </si>
-  <si>
-    <t>处理任务队列的任务（runAllTasks）</t>
-  </si>
-  <si>
-    <t>7.每个Worker NioEventLoop循环执行的步骤</t>
-  </si>
-  <si>
-    <t>轮训read,write事件</t>
-  </si>
-  <si>
-    <t>处理read,write事件，对应的NioEventLoop处理</t>
-  </si>
-  <si>
-    <t>处理任务队列的任务，runAllTAsks</t>
-  </si>
-  <si>
-    <t>8.每个Worker NioEventLoop处理业务时，会使用pipeline管道，</t>
-  </si>
-  <si>
-    <t>管道中包含了channel，通过管道可以获取到对应通道</t>
-  </si>
-  <si>
-    <t>管道中维护了多个处理器</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>本质是一个双向链表</t>
-  </si>
-  <si>
-    <t>Netty任务队列有3中</t>
-  </si>
-  <si>
-    <t>普通任务 TaskQueue</t>
-  </si>
-  <si>
-    <t>定时任务 scheduledTaskQueue</t>
-  </si>
-  <si>
-    <t>非当前Reactor线程调用Channel的各种方法</t>
-  </si>
-  <si>
-    <t>ChannelFuture</t>
-  </si>
-  <si>
-    <t>接受异步IO操作的结果，可以通过它提供的方法来检测执行是否完成，比如检测计算等等</t>
-  </si>
-  <si>
-    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
-  </si>
-  <si>
-    <t>Future-Listener机制</t>
-  </si>
-  <si>
-    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
-  </si>
-  <si>
-    <t>注册监听函数来执行完成后的操作</t>
-  </si>
-  <si>
-    <t>相比传统阻塞IO，执行IO操作后线程会被阻塞住，知道操作完成</t>
-  </si>
-  <si>
-    <t>异步处理好处是不会造成线程阻塞，线程在IO操作期间可以执行别的程序</t>
-  </si>
-  <si>
-    <t>ByteBuf</t>
-  </si>
-  <si>
-    <t>Netty里的内存管理是通过ByteBuf这个类作为桥梁连接着业务代码与jdk底层的内存。</t>
-  </si>
-  <si>
-    <t>handler()和childHandler()的主要区别</t>
-  </si>
-  <si>
-    <t>handler()对应的是bossGroup，是发生在初始化的时候，</t>
-  </si>
-  <si>
-    <t>childHandler()对应的是workerGroup，是发生在客户端连接之后。</t>
-  </si>
-  <si>
-    <t>Bootstrap,ServerBootstrap</t>
-  </si>
-  <si>
-    <t>Bootstrap用于配置Netty启动类，Bootstrap用于客户端配置，ServerBootstrap用户服务端配置</t>
-  </si>
-  <si>
-    <t>Bootstrap参数说明</t>
-  </si>
-  <si>
-    <t>group:</t>
-  </si>
-  <si>
-    <t>Server配置时需要传入两个EvenLoopGroup，一个boss，一个worker</t>
-  </si>
-  <si>
-    <t>客户端配置时只要一个EvenLoopGroup</t>
-  </si>
-  <si>
-    <t>channel：用来设置一个服务器端的通道实现</t>
-  </si>
-  <si>
-    <t>option：用来给ServerChannel添加配置</t>
-  </si>
-  <si>
-    <t>childOption：用来给接收到的通道添加配置</t>
-  </si>
-  <si>
-    <t>childHandler：用来设置业务处理类（自定义的Handler，需要创建一个通道初始化对象ChannelInitializer）</t>
-  </si>
-  <si>
-    <t>bind：用于服务器端，用来设置占用的端口号</t>
-  </si>
-  <si>
-    <t>connect：用于客户端，用来连接服务器端</t>
-  </si>
-  <si>
-    <t>ChannelHandler</t>
-  </si>
-  <si>
-    <t>ChannelInboundHandler：处理入站IO事件（读）</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandler：处理出站IO事件(写）</t>
-  </si>
-  <si>
-    <t>适配器：</t>
-  </si>
-  <si>
-    <t>ChannelInboundHandlerAdapter：处理入站IO事件</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandlerAdapter：处理出站IO事件</t>
-  </si>
-  <si>
-    <t>出栈入栈的说明：</t>
-  </si>
-  <si>
-    <t>事件的运动方向是从客户端到服务器端，称为出站ChannelOutboundHandler</t>
-  </si>
-  <si>
-    <t>事件的运动方向是从服务器端到客户端，称为入站ChannelInboundHandler</t>
-  </si>
-  <si>
-    <t>pipeline，ChannelPipeline</t>
-  </si>
-  <si>
-    <t>ChannelPipeline：Handler集合，负责处理和拦截inbound/outbound的事件和操作，相当于Netty链</t>
-  </si>
-  <si>
-    <t>一个Channel包含一个ChannelPipeline</t>
-  </si>
-  <si>
-    <t>ChannelPipeline中维护了一个由ChannelHandlerContext组成的双向链表</t>
-  </si>
-  <si>
-    <t>每个ChannelHandlerContext中关联了一个ChannelHandler</t>
-  </si>
-  <si>
-    <t>入站事件从链表的head往后传递到最后一个入站的handler</t>
-  </si>
-  <si>
-    <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext</t>
-  </si>
-  <si>
-    <t>实际类型是DefaultChannelHandlerContext</t>
-  </si>
-  <si>
-    <t>保存Channel相关的所有上下文信息，同事关联一个ChannelHandler对象</t>
-  </si>
-  <si>
-    <t>包含一个具体的时间处理器ChannelHandler</t>
-  </si>
-  <si>
-    <t>也绑定了对应的pipeline和Channel的信息，方便对ChannelHandler调用</t>
-  </si>
-  <si>
-    <t>ChannelOption</t>
-  </si>
-  <si>
-    <t>创建Channel实例后需要设置ChannelOption参数</t>
-  </si>
-  <si>
-    <t>SO_BROADCAST：初始化服务器可连接队列大小</t>
-  </si>
-  <si>
-    <t>SO_KEEPALIVE：一直保持连接活动状态</t>
-  </si>
-  <si>
-    <t>EvenLoopGroup/NioEventLoopGroup</t>
-  </si>
-  <si>
-    <t>EvenLoopGrou是一组EventLoop的抽象，Netty为了更好的利用多和CPU资源，一般会有多个EventLoop同事工作</t>
-  </si>
-  <si>
-    <t>每个EventLoop维护一个Selector实例</t>
-  </si>
-  <si>
-    <t>Unpooled</t>
-  </si>
-  <si>
-    <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
-  </si>
-  <si>
-    <t>Netty心跳</t>
-  </si>
-  <si>
-    <t>netty 提供的 IdleStateHandler三个参数</t>
-  </si>
-  <si>
-    <t>long readerIdleTime : 表示多长时间没有读, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>long writerIdleTime : 表示多长时间没有写, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>long allIdleTime : 表示多长时间没有读写, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>在一段时间内读取，写入或读写同时执行的操作没有执行的时候，触发IdleStateEvent</t>
-  </si>
-  <si>
-    <t>当 IdleStateEvent 触发后 , 就会传递给管道 的下一个handler去处理</t>
-  </si>
-  <si>
-    <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
-  </si>
-  <si>
-    <t>Netty启动过程源码分析</t>
-  </si>
-  <si>
-    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
-  </si>
-  <si>
-    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
-  </si>
-  <si>
-    <t>3.通过 bind 方法启动，内部重要方法为 initAndRegister 和 dobind 方法。</t>
-  </si>
-  <si>
-    <t>4.initAndRegister 方法会反射创建 NioServerSocketChannel 及其相关的 NIO 的对象， pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
-  </si>
-  <si>
-    <t>同时也含有NioServerSocketChannelConfig 对象。然后向 pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
-  </si>
-  <si>
-    <t>这个处理器用于分配接受的 请求给 worker 线程池。</t>
-  </si>
-  <si>
-    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
-  </si>
-  <si>
-    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
-  </si>
-  <si>
-    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
-  </si>
-  <si>
-    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
-  </si>
-  <si>
-    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
-  </si>
-  <si>
-    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
-  </si>
-  <si>
-    <t>doReadMessages</t>
-  </si>
-  <si>
-    <t>fireChannelRead</t>
-  </si>
-  <si>
-    <t>ChannelPipeline调度Handle</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext源码分析</t>
-  </si>
-  <si>
-    <t>Netty心跳源码解析（IdleStateHandler)</t>
-  </si>
-  <si>
-    <t>核心4个熟悉</t>
-  </si>
-  <si>
-    <t>observerOutput：是否考虑出站慢的情况，默认是false</t>
-  </si>
-  <si>
-    <t>因为在网络传输的时候可能因为网络问题传输速度比设定的超时时间长，但实际网络没有断开，</t>
-  </si>
-  <si>
-    <t>observerOutput就是用于这类情况</t>
-  </si>
-  <si>
-    <t>Eventloop源码</t>
-  </si>
-  <si>
-    <t>继承图</t>
-  </si>
-  <si>
-    <t>handler中加入线程池和Context中添加线程池源码</t>
-  </si>
-  <si>
-    <t>TCP、UDP的区别</t>
-  </si>
-  <si>
-    <t>TCP面向连接（如打电话要先拨号建立连接）;UDP是无连接的，即发送数据之前不需要建立连接</t>
-  </si>
-  <si>
-    <t>TCP连接传送的数据，无差错，不丢失，不重复，且按序到达;UDP尽最大努力交付，即不保证可靠交付</t>
-  </si>
-  <si>
-    <t>TCP面向字节流，实际上是TCP把数据看成一连串无结构的字节流;UDP是面向报文的</t>
-  </si>
-  <si>
-    <t>UDP没有拥塞控制，因此网络出现拥塞不会使源主机的发送速率降低（对实时应用很有用，如IP电话，实时视频会议等）</t>
-  </si>
-  <si>
-    <t>每一条TCP连接只能是点到点的;UDP支持一对一，一对多，多对一和多对多的交互通信</t>
-  </si>
-  <si>
-    <t>TCP首部开销20字节;UDP的首部开销小，只有8个字节</t>
-  </si>
-  <si>
-    <t>TCP的逻辑通信信道是全双工的可靠信道，UDP则是不可靠信道</t>
-  </si>
-  <si>
-    <t>TCP协议如何保证可靠传输？</t>
-  </si>
-  <si>
-    <t>TCP的握手、挥手机制？</t>
-  </si>
-  <si>
-    <t>首先时第一次握手，客户机给服务器发送SYN报文</t>
-  </si>
-  <si>
-    <t>然后是第二次握手，服务器接收到这个SYN包，反馈客户机ACK</t>
-  </si>
-  <si>
-    <t>最后是第三次握手：客户机接收到服务器的报文，反馈给服务器成功接受的信息。然后这个TCP连接就建立了</t>
-  </si>
-  <si>
-    <t>Netty的粘包/拆包是怎么处理的，有哪些实现？</t>
-  </si>
-  <si>
+    <r>
+      <t>但是</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -2198,6 +1757,183 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Reactor处理所有的时间的监听和响应，在单线程运行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在高并发场景容易出现性能瓶颈</t>
+    </r>
+  </si>
+  <si>
+    <t>Reactor主从多线程</t>
+  </si>
+  <si>
+    <t>1 Reactor主线程MainReactor对象通过select监听连接事件后，通过acceptor处理连接事件</t>
+  </si>
+  <si>
+    <t>2.当acceptor处理连接事件后，mainreactor将连接分配给subreactor</t>
+  </si>
+  <si>
+    <t>3.subrector将连接加入到连接队列进行监控，并创建handler进行各种事件处理</t>
+  </si>
+  <si>
+    <t>4.当有新事件发生时，subreactor就会调用对应的handler处理</t>
+  </si>
+  <si>
+    <t>5.Handler通过read读取数据，分发给后面的worker线程处理</t>
+  </si>
+  <si>
+    <t>6.worker线程池分配独立的worker线程进行业务处理，并返回结果</t>
+  </si>
+  <si>
+    <t>7.Handler收到响应的结果后，在通过send将结果返回给client</t>
+  </si>
+  <si>
+    <t>8.Reactor主线程可以对应多个Reactor子线程，MainRecator可以关联多个SubReactor</t>
+  </si>
+  <si>
+    <t>Netty模型</t>
+  </si>
+  <si>
+    <t>1.Netty抽象出来两个线程池</t>
+  </si>
+  <si>
+    <t>BossGroup专门负责接收客户端的连接</t>
+  </si>
+  <si>
+    <t>WorkerGroup专门负责网络的读写</t>
+  </si>
+  <si>
+    <t>2.BossGroup和WorkerGroup类型都是NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>3.NioEventLoopGroup相当于一个事件循环组，这个组中含有多个事件循环</t>
+  </si>
+  <si>
+    <t>每一个事件循环都是NioEventLoop</t>
+  </si>
+  <si>
+    <t>4.NioEventLoop表示一个不断循环的执行处理任务的线程，每个NioEventLoop</t>
+  </si>
+  <si>
+    <t>都有一个selector，用于监听绑定在其上的socket的网络通讯</t>
+  </si>
+  <si>
+    <t>5.NioEventLoop可以有多个线程，即可以含有多个NioEventLoop</t>
+  </si>
+  <si>
+    <t>6.每个Boss NioEventLoop循环执行的步骤有3步</t>
+  </si>
+  <si>
+    <t>轮训accept事件</t>
+  </si>
+  <si>
+    <t>处理accept事件，与client简历连接，生成NioEventLoop,并将其</t>
+  </si>
+  <si>
+    <t>注册到worker NioEventLoop上的selector</t>
+  </si>
+  <si>
+    <t>处理任务队列的任务（runAllTasks）</t>
+  </si>
+  <si>
+    <t>7.每个Worker NioEventLoop循环执行的步骤</t>
+  </si>
+  <si>
+    <t>轮训read,write事件</t>
+  </si>
+  <si>
+    <t>处理read,write事件，对应的NioEventLoop处理</t>
+  </si>
+  <si>
+    <t>处理任务队列的任务，runAllTAsks</t>
+  </si>
+  <si>
+    <t>8.每个Worker NioEventLoop处理业务时，会使用pipeline管道，</t>
+  </si>
+  <si>
+    <t>管道中包含了channel，通过管道可以获取到对应通道</t>
+  </si>
+  <si>
+    <t>管道中维护了多个处理器</t>
+  </si>
+  <si>
+    <t>几种序列化协议</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>优点：人机可读性好，可指定元素或特性的名称。</t>
+  </si>
+  <si>
+    <t>缺点：序列化数据只包含数据本身以及类的结构，不包括类型标识和程序集信息；只能序列化公共属性和字段；不能序列化方法；文件庞大，文件格式复杂，传输占带宽。</t>
+  </si>
+  <si>
+    <t>适用场景：当做配置文件存储数据，实时数据转换。</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>优点：兼容性高、数据格式比较简单，易于读写、序列化后数据较小，可扩展性好，兼容性好、与 XML 相比，其协议比较简单，解析速度比较快。</t>
+  </si>
+  <si>
+    <t>缺点：数据的描述性比 XML 差</t>
+  </si>
+  <si>
+    <t>适用场景（可替代ＸＭＬ）：跨防火墙访问、可调式性要求高、基于 Webbrowser 的 Ajax 请求、传输数据量相对小，实时性要求相对低（例如秒级别）的服务。</t>
+  </si>
+  <si>
+    <t>Fastjson</t>
+  </si>
+  <si>
+    <t>优点：接口简单易用、目前 java 语言中最快的 json 库。</t>
+  </si>
+  <si>
+    <t>缺点：过于注重快，而偏离了“标准”及功能性、代码质量不高，文档不全。</t>
+  </si>
+  <si>
+    <t>适用场景：协议交互、Web 输出、Android 客户端</t>
+  </si>
+  <si>
+    <t>Thrift</t>
+  </si>
+  <si>
+    <t>优点：序列化后的体积小, 速度快、支持多种语言和丰富的数据类型、对于数据字段的增删具有较强的兼容性、支持二进制压缩编码。</t>
+  </si>
+  <si>
+    <t>缺点：使用者较少、跨防火墙访问时，不安全、不具有可读性，调试代码时相对困难、不能与其他传输层协议共同使用（例如 HTTP）、</t>
+  </si>
+  <si>
+    <t>无法支持向持久层直接读写数据，即不适合做数据持久化序列化协议。</t>
+  </si>
+  <si>
+    <t>适用场景：分布式系统的 RPC 解决方案</t>
+  </si>
+  <si>
+    <t>Protobuf</t>
+  </si>
+  <si>
+    <t>优点：序列化后码流小，性能高、结构化数据存储格式（XML JSON 等）、通过标识字段的顺序，可以实现协议的前向兼容、结构化的文档更容易管理和维护。</t>
+  </si>
+  <si>
+    <t>缺点：需要依赖于工具生成代码、支持的语言相对较少，官方只支持Java 、C++ 、python。</t>
+  </si>
+  <si>
+    <t>适用场景：对性能要求高的 RPC 调用、具有良好的跨防火墙的访问属性、适合应用层对象的持久化</t>
+  </si>
+  <si>
+    <t>Netty的粘包/拆包是怎么处理的，有哪些实现？</t>
+  </si>
+  <si>
+    <r>
       <t>FixedLength</t>
     </r>
     <r>
@@ -2409,7 +2145,325 @@
     <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender需要配合起来使用，其实本质上来讲，这两者一个是解码，一个是编码的关系。</t>
   </si>
   <si>
-    <t>零拷贝（没有CPU的拷贝）</t>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>本质是一个双向链表</t>
+  </si>
+  <si>
+    <t>Netty任务队列有3中</t>
+  </si>
+  <si>
+    <t>普通任务 TaskQueue</t>
+  </si>
+  <si>
+    <t>定时任务 scheduledTaskQueue</t>
+  </si>
+  <si>
+    <t>非当前Reactor线程调用Channel的各种方法</t>
+  </si>
+  <si>
+    <t>ChannelFuture</t>
+  </si>
+  <si>
+    <t>接受异步IO操作的结果，可以通过它提供的方法来检测执行是否完成，比如检测计算等等</t>
+  </si>
+  <si>
+    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
+  </si>
+  <si>
+    <t>Future-Listener机制</t>
+  </si>
+  <si>
+    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
+  </si>
+  <si>
+    <t>注册监听函数来执行完成后的操作</t>
+  </si>
+  <si>
+    <t>相比传统阻塞IO，执行IO操作后线程会被阻塞住，知道操作完成</t>
+  </si>
+  <si>
+    <t>异步处理好处是不会造成线程阻塞，线程在IO操作期间可以执行别的程序</t>
+  </si>
+  <si>
+    <t>ByteBuf</t>
+  </si>
+  <si>
+    <t>Netty里的内存管理是通过ByteBuf这个类作为桥梁连接着业务代码与jdk底层的内存。</t>
+  </si>
+  <si>
+    <t>handler()和childHandler()的主要区别</t>
+  </si>
+  <si>
+    <t>handler()对应的是bossGroup，是发生在初始化的时候，</t>
+  </si>
+  <si>
+    <t>childHandler()对应的是workerGroup，是发生在客户端连接之后。</t>
+  </si>
+  <si>
+    <t>Bootstrap,ServerBootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap用于配置Netty启动类，Bootstrap用于客户端配置，ServerBootstrap用户服务端配置</t>
+  </si>
+  <si>
+    <t>Bootstrap参数说明</t>
+  </si>
+  <si>
+    <t>group:</t>
+  </si>
+  <si>
+    <t>Server配置时需要传入两个EvenLoopGroup，一个boss，一个worker</t>
+  </si>
+  <si>
+    <t>客户端配置时只要一个EvenLoopGroup</t>
+  </si>
+  <si>
+    <t>channel：用来设置一个服务器端的通道实现</t>
+  </si>
+  <si>
+    <t>option：用来给ServerChannel添加配置</t>
+  </si>
+  <si>
+    <t>childOption：用来给接收到的通道添加配置</t>
+  </si>
+  <si>
+    <t>childHandler：用来设置业务处理类（自定义的Handler，需要创建一个通道初始化对象ChannelInitializer）</t>
+  </si>
+  <si>
+    <t>bind：用于服务器端，用来设置占用的端口号</t>
+  </si>
+  <si>
+    <t>connect：用于客户端，用来连接服务器端</t>
+  </si>
+  <si>
+    <t>ChannelHandler</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandler：处理入站IO事件（读）</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandler：处理出站IO事件(写）</t>
+  </si>
+  <si>
+    <t>适配器：</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandlerAdapter：处理入站IO事件</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandlerAdapter：处理出站IO事件</t>
+  </si>
+  <si>
+    <t>出栈入栈的说明：</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从客户端到服务器端，称为出站ChannelOutboundHandler</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从服务器端到客户端，称为入站ChannelInboundHandler</t>
+  </si>
+  <si>
+    <t>pipeline，ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelPipeline：Handler集合，负责处理和拦截inbound/outbound的事件和操作，相当于Netty链</t>
+  </si>
+  <si>
+    <t>一个Channel包含一个ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelPipeline中维护了一个由ChannelHandlerContext组成的双向链表</t>
+  </si>
+  <si>
+    <t>每个ChannelHandlerContext中关联了一个ChannelHandler</t>
+  </si>
+  <si>
+    <t>入站事件从链表的head往后传递到最后一个入站的handler</t>
+  </si>
+  <si>
+    <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>实际类型是DefaultChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>保存Channel相关的所有上下文信息，同事关联一个ChannelHandler对象</t>
+  </si>
+  <si>
+    <t>包含一个具体的时间处理器ChannelHandler</t>
+  </si>
+  <si>
+    <t>也绑定了对应的pipeline和Channel的信息，方便对ChannelHandler调用</t>
+  </si>
+  <si>
+    <t>ChannelOption</t>
+  </si>
+  <si>
+    <t>创建Channel实例后需要设置ChannelOption参数</t>
+  </si>
+  <si>
+    <t>SO_BROADCAST：初始化服务器可连接队列大小</t>
+  </si>
+  <si>
+    <t>SO_KEEPALIVE：一直保持连接活动状态</t>
+  </si>
+  <si>
+    <t>EvenLoopGroup/NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>EvenLoopGrou是一组EventLoop的抽象，Netty为了更好的利用多和CPU资源，一般会有多个EventLoop同事工作</t>
+  </si>
+  <si>
+    <t>每个EventLoop维护一个Selector实例</t>
+  </si>
+  <si>
+    <t>Unpooled</t>
+  </si>
+  <si>
+    <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
+  </si>
+  <si>
+    <t>Netty心跳</t>
+  </si>
+  <si>
+    <t>netty 提供的 IdleStateHandler三个参数</t>
+  </si>
+  <si>
+    <t>long readerIdleTime : 表示多长时间没有读, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long writerIdleTime : 表示多长时间没有写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long allIdleTime : 表示多长时间没有读写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>在一段时间内读取，写入或读写同时执行的操作没有执行的时候，触发IdleStateEvent</t>
+  </si>
+  <si>
+    <t>当 IdleStateEvent 触发后 , 就会传递给管道 的下一个handler去处理</t>
+  </si>
+  <si>
+    <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
+  </si>
+  <si>
+    <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
+  </si>
+  <si>
+    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
+  </si>
+  <si>
+    <t>3.通过 bind 方法启动，内部重要方法为 initAndRegister 和 dobind 方法。</t>
+  </si>
+  <si>
+    <t>4.initAndRegister 方法会反射创建 NioServerSocketChannel 及其相关的 NIO 的对象， pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
+  </si>
+  <si>
+    <t>同时也含有NioServerSocketChannelConfig 对象。然后向 pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
+  </si>
+  <si>
+    <t>这个处理器用于分配接受的 请求给 worker 线程池。</t>
+  </si>
+  <si>
+    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
+  </si>
+  <si>
+    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
+  </si>
+  <si>
+    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
+  </si>
+  <si>
+    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
+  </si>
+  <si>
+    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
+  </si>
+  <si>
+    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
+  </si>
+  <si>
+    <t>doReadMessages</t>
+  </si>
+  <si>
+    <t>fireChannelRead</t>
+  </si>
+  <si>
+    <t>ChannelPipeline调度Handle</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext源码分析</t>
+  </si>
+  <si>
+    <t>Netty心跳源码解析（IdleStateHandler)</t>
+  </si>
+  <si>
+    <t>核心4个熟悉</t>
+  </si>
+  <si>
+    <t>observerOutput：是否考虑出站慢的情况，默认是false</t>
+  </si>
+  <si>
+    <t>因为在网络传输的时候可能因为网络问题传输速度比设定的超时时间长，但实际网络没有断开，</t>
+  </si>
+  <si>
+    <t>observerOutput就是用于这类情况</t>
+  </si>
+  <si>
+    <t>Eventloop源码</t>
+  </si>
+  <si>
+    <t>继承图</t>
+  </si>
+  <si>
+    <t>handler中加入线程池和Context中添加线程池源码</t>
+  </si>
+  <si>
+    <t>TCP、UDP的区别</t>
+  </si>
+  <si>
+    <t>TCP面向连接（如打电话要先拨号建立连接）;UDP是无连接的，即发送数据之前不需要建立连接</t>
+  </si>
+  <si>
+    <t>TCP连接传送的数据，无差错，不丢失，不重复，且按序到达;UDP尽最大努力交付，即不保证可靠交付</t>
+  </si>
+  <si>
+    <t>TCP面向字节流，实际上是TCP把数据看成一连串无结构的字节流;UDP是面向报文的</t>
+  </si>
+  <si>
+    <t>UDP没有拥塞控制，因此网络出现拥塞不会使源主机的发送速率降低（对实时应用很有用，如IP电话，实时视频会议等）</t>
+  </si>
+  <si>
+    <t>每一条TCP连接只能是点到点的;UDP支持一对一，一对多，多对一和多对多的交互通信</t>
+  </si>
+  <si>
+    <t>TCP首部开销20字节;UDP的首部开销小，只有8个字节</t>
+  </si>
+  <si>
+    <t>TCP的逻辑通信信道是全双工的可靠信道，UDP则是不可靠信道</t>
+  </si>
+  <si>
+    <t>TCP协议如何保证可靠传输？</t>
+  </si>
+  <si>
+    <t>TCP的握手、挥手机制？</t>
+  </si>
+  <si>
+    <t>首先时第一次握手，客户机给服务器发送SYN报文</t>
+  </si>
+  <si>
+    <t>然后是第二次握手，服务器接收到这个SYN包，反馈客户机ACK</t>
+  </si>
+  <si>
+    <t>最后是第三次握手：客户机接收到服务器的报文，反馈给服务器成功接受的信息。然后这个TCP连接就建立了</t>
   </si>
   <si>
     <t>一次正常的文件读写拷贝：4次转换，3次读写来实现</t>
@@ -2485,8 +2539,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2539,7 +2593,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2553,7 +2621,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2561,37 +2637,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2606,38 +2660,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2668,9 +2691,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2683,7 +2737,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2695,31 +2821,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2731,31 +2839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2767,25 +2869,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,73 +2899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2892,56 +2946,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2962,6 +2966,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2989,6 +3028,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2997,10 +3051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3009,16 +3063,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3027,115 +3081,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3493,15 +3547,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3518,8 +3572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6696075" y="12134850"/>
-          <a:ext cx="5657850" cy="3314700"/>
+          <a:off x="6242050" y="13430250"/>
+          <a:ext cx="4064000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,16 +3588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3560,8 +3614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5972175" y="16116300"/>
-          <a:ext cx="5153025" cy="3114675"/>
+          <a:off x="695325" y="15697200"/>
+          <a:ext cx="4143375" cy="2504440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3576,16 +3630,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3602,7 +3656,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6753225" y="19478625"/>
+          <a:off x="6905625" y="18573750"/>
           <a:ext cx="5143500" cy="4714875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3620,13 +3674,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3644,7 +3698,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6924675" y="24660225"/>
+          <a:off x="6924675" y="23802975"/>
           <a:ext cx="4629150" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3660,20 +3714,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>175</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>455295</xdr:colOff>
-      <xdr:row>185</xdr:row>
-      <xdr:rowOff>162560</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="7" name="图片 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3686,49 +3740,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6172200" y="30013275"/>
-          <a:ext cx="5941695" cy="1867535"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>189</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>214</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6172200" y="32404050"/>
+          <a:off x="6105525" y="28898850"/>
           <a:ext cx="5553075" cy="4448175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3746,13 +3758,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>270</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:row>302</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3763,14 +3775,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="46424850"/>
+          <a:off x="542925" y="49682400"/>
           <a:ext cx="4029075" cy="2181225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3788,13 +3800,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>286</xdr:row>
+      <xdr:row>305</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>314</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3805,14 +3817,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="49101375"/>
+          <a:off x="533400" y="52358925"/>
           <a:ext cx="6038850" cy="1630045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3830,13 +3842,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>318</xdr:row>
+      <xdr:row>337</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>332</xdr:row>
+      <xdr:row>351</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3847,14 +3859,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="54521100"/>
+          <a:off x="685800" y="57778650"/>
           <a:ext cx="7248525" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3872,13 +3884,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>402</xdr:row>
+      <xdr:row>421</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3889,14 +3901,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="66179700"/>
+          <a:off x="685800" y="69437250"/>
           <a:ext cx="4800600" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3914,13 +3926,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>379</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>416</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3931,14 +3943,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="65112900"/>
+          <a:off x="6838950" y="68370450"/>
           <a:ext cx="7362825" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4375,8 +4387,8 @@
   <sheetPr/>
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4755,7 +4767,7 @@
   <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -4909,10 +4921,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="G350" sqref="G350"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5252,98 +5264,98 @@
         <v>149</v>
       </c>
     </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
-      <c r="C81" t="s">
+    <row r="82" spans="1:1">
+      <c r="A82" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="84" spans="2:2">
+      <c r="B84" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="86" spans="2:2">
+      <c r="B86" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="87" spans="3:3">
+      <c r="C87" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" t="s">
+    <row r="89" spans="3:3">
+      <c r="C89" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="3:3">
-      <c r="C94" t="s">
+    <row r="91" spans="1:1">
+      <c r="A91" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="1" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
+    <row r="110" spans="2:2">
+      <c r="B110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="98" spans="3:3">
-      <c r="C98" t="s">
+    <row r="111" spans="2:2">
+      <c r="B111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" t="s">
+    <row r="112" spans="3:3">
+      <c r="C112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="1" t="s">
+    <row r="113" spans="2:2">
+      <c r="B113" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" t="s">
+    <row r="114" spans="2:2">
+      <c r="B114" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117" spans="3:3">
-      <c r="C117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" t="s">
+    <row r="117" spans="2:2">
+      <c r="B117" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5352,688 +5364,840 @@
         <v>169</v>
       </c>
     </row>
-    <row r="120" spans="3:3">
-      <c r="C120" t="s">
+    <row r="120" spans="2:2">
+      <c r="B120" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" t="s">
+    <row r="139" spans="1:1">
+      <c r="A139" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" t="s">
+    <row r="140" spans="2:2">
+      <c r="B140" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" t="s">
+    <row r="141" spans="2:2">
+      <c r="B141" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="170" spans="3:3">
+      <c r="C170" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" t="s">
+    <row r="171" spans="3:3">
+      <c r="C171" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:1">
-      <c r="A173" s="1" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="3:3">
-      <c r="C177" t="s">
+    <row r="176" spans="3:3">
+      <c r="C176" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="3:3">
-      <c r="C181" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" t="s">
         <v>191</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4">
+      <c r="D181" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="3:3">
       <c r="C182" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="3:3">
       <c r="C185" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="187" spans="3:3">
-      <c r="C187" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" t="s">
+    <row r="186" spans="3:3">
+      <c r="C186" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="190" spans="3:3">
-      <c r="C190" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="3:3">
-      <c r="C191" t="s">
+    <row r="188" spans="3:3">
+      <c r="C188" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="4:4">
-      <c r="D192" t="s">
+    <row r="189" spans="3:3">
+      <c r="C189" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="3:3">
-      <c r="C193" t="s">
+    <row r="196" spans="1:1">
+      <c r="A196" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
+    <row r="197" spans="2:3">
+      <c r="B197" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="195" spans="3:3">
-      <c r="C195" t="s">
+      <c r="C197" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="3:3">
-      <c r="C196" t="s">
+    <row r="198" spans="3:3">
+      <c r="C198" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="197" spans="3:3">
-      <c r="C197" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="199" spans="3:3">
       <c r="C199" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" t="s">
+        <v>208</v>
+      </c>
+      <c r="C201" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="3:3">
-      <c r="C200" t="s">
+    <row r="202" spans="3:3">
+      <c r="C202" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="217" spans="1:1">
-      <c r="A217" s="1" t="s">
+    <row r="203" spans="3:3">
+      <c r="C203" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row r="205" spans="2:3">
+      <c r="B205" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" s="1" t="s">
+      <c r="C205" t="s">
         <v>213</v>
       </c>
     </row>
+    <row r="206" spans="3:3">
+      <c r="C206" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>216</v>
+      </c>
+      <c r="C209" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4">
+      <c r="D211" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
+        <v>221</v>
+      </c>
+      <c r="C214" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="221" spans="2:2">
-      <c r="B221" t="s">
-        <v>214</v>
+      <c r="B221" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
-        <v>218</v>
+      <c r="B222" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="223" customFormat="1"/>
+    <row r="224" spans="1:1">
+      <c r="A224" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="228" customFormat="1"/>
+    <row r="229" spans="1:1">
+      <c r="A229" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
-        <v>221</v>
+      <c r="B230" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="234" spans="3:3">
       <c r="C234" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" t="s">
-        <v>223</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="236" spans="2:2">
       <c r="B236" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="242" spans="2:2">
-      <c r="B242" t="s">
-        <v>228</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2">
+      <c r="B240" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="1" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="243" spans="2:2">
       <c r="B243" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="250" spans="3:3">
-      <c r="C250" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="251" spans="3:3">
-      <c r="C251" t="s">
-        <v>235</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="254" spans="2:2">
       <c r="B254" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="255" spans="2:2">
       <c r="B255" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2">
-      <c r="B256" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>241</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="263" spans="2:2">
-      <c r="B263" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
-        <v>246</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="265" spans="2:2">
       <c r="B265" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="267" spans="2:2">
-      <c r="B267" t="s">
-        <v>248</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="268" spans="2:2">
       <c r="B268" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
-      <c r="A285" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2">
+      <c r="B276" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2">
+      <c r="B280" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2">
+      <c r="B283" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2">
+      <c r="B284" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="286" spans="2:2">
       <c r="B286" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="298" spans="2:2">
-      <c r="B298" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="299" spans="2:2">
-      <c r="B299" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="300" spans="2:2">
-      <c r="B300" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
-      <c r="A305" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2">
-      <c r="B306" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="308" spans="2:2">
-      <c r="B308" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2">
-      <c r="B309" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
-      <c r="A311" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="312" spans="2:2">
-      <c r="B312" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2">
-      <c r="B313" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2">
-      <c r="B314" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
-      <c r="A316" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2">
+      <c r="B305" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="317" spans="2:2">
       <c r="B317" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>269</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2">
+      <c r="B321" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2">
+      <c r="B326" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2">
+      <c r="B327" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2">
+      <c r="B328" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2">
+      <c r="B331" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2">
+      <c r="B332" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2">
+      <c r="B333" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" s="1" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="336" spans="2:2">
       <c r="B336" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1">
-      <c r="A338" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2">
-      <c r="B339" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="340" spans="2:2">
-      <c r="B340" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="341" spans="2:2">
-      <c r="B341" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2">
-      <c r="B342" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2">
-      <c r="B343" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="344" spans="3:3">
-      <c r="C344" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="345" spans="3:3">
-      <c r="C345" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
-      <c r="A347" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="348" spans="2:2">
-      <c r="B348" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2">
-      <c r="B349" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2">
-      <c r="B350" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2">
-      <c r="B351" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="352" spans="3:3">
-      <c r="C352" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="353" spans="3:3">
-      <c r="C353" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="354" spans="3:3">
-      <c r="C354" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="355" spans="3:3">
-      <c r="C355" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2">
-      <c r="B356" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="357" spans="3:3">
-      <c r="C357" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="358" spans="3:3">
-      <c r="C358" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="360" spans="1:1">
-      <c r="A360" s="1" t="s">
+    <row r="337" spans="2:2">
+      <c r="B337" t="s">
         <v>292</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2">
+      <c r="B358" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2">
+      <c r="B359" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="360" spans="2:2">
+      <c r="B360" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="361" spans="2:2">
       <c r="B361" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="362" spans="2:2">
       <c r="B362" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
-      <c r="A367" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
-      <c r="A370" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
-      <c r="A374" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="367" spans="2:2">
+      <c r="B367" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2">
+      <c r="B370" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2">
-      <c r="B376" t="s">
-        <v>299</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="378" spans="3:3">
-      <c r="C378" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
-      <c r="A380" s="1" t="s">
-        <v>302</v>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2">
+      <c r="B380" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2">
+      <c r="B400" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6053,8 +6217,8 @@
   <sheetPr/>
   <dimension ref="A1:C16384"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6064,68 +6228,68 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" customFormat="1"/>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -6178,47 +6342,47 @@
     <row r="26" customFormat="1"/>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>318</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>319</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>320</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>323</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>324</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>325</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="1"/>
@@ -22581,8 +22745,8 @@
   <sheetPr/>
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -22591,68 +22755,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>327</v>
+      <c r="A1" s="1">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="448">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1412,13 +1412,122 @@
     </r>
   </si>
   <si>
-    <t>Netty 内存池原理</t>
-  </si>
-  <si>
-    <t>Netty通常用于高并发系统，所以各个线程进行内存分配时竞争不可避免，会影响内存分配的效率，</t>
-  </si>
-  <si>
-    <t>Netty允许使用者创建多个分配器（Arena）来分离锁，提高内存分配效率，当然是以内存来作为代价的。</t>
+    <t>Netty 内存池原理PoolArena</t>
+  </si>
+  <si>
+    <r>
+      <t>Netty通常</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于高并发系统</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>各个线程进行内存分配时竞争不可避免</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>影响内存分配的效率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Netty允许使用者</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建多个分配器（poolArena）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来分离锁，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>提高内存分配效率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当然是以内存来作为代价的。</t>
+    </r>
   </si>
   <si>
     <t>通过PooledByteBufAllocator构造子中的nHeapArena参数来执行Arena的数量</t>
@@ -1427,25 +1536,550 @@
     <t>Netty中如何保证异步串行无锁化</t>
   </si>
   <si>
-    <t>外部线程调用EventLoop或者channel的一些方法的时候，都会调用InEventLoop()方法检查当前线程是否是NioEventloop中的线程</t>
-  </si>
-  <si>
-    <t>如如果是外部线程，就会将外部线程的的所有操作封装成为一个task，放进EventLoop的MPSCQ里面，依次执行</t>
+    <r>
+      <t>外部线程调用EventLoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者channel的一些方法的时候，都</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>会调用InEventLoop()方法检查当前线程是否是NioEventloop中的线程</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果是外部线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就会将外部线程的的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有操作封装成为一个task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>放进EventLoop的MPSCQ里面，依次执行</t>
+    </r>
   </si>
   <si>
     <t>高性能序列化协议protobuf</t>
   </si>
   <si>
-    <t>protobuf每个字段我们都用tag|value的方式来存储的</t>
-  </si>
-  <si>
-    <t>在tag当中记录两种信息，一个是value对应的字段的编号，另一个是value的数据类型（比如是整形还是字符串等）</t>
-  </si>
-  <si>
-    <t>为了能够快速解析字符串类型的数据，protobuf在存储的时候，做了特殊的处理，分成了三部分：tag|leg|value，</t>
-  </si>
-  <si>
-    <t>其中的leg记录了字符串的长度，同样使用了varint来存储，一般一个字节就能搞定，然后程序从leg后截取leg个字节的数据作为value，解析速度非常快。</t>
+    <r>
+      <t>protobuf每个字段我们都用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag|value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的方式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当中记录</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两种信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应的字段的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，另一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value的数据类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（比如是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整形</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>还是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key是字符串</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个字符就会占据一个字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以像</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name这个key就会占据4个字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，但在protobuf中，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag使用二进制进行存储，一般只会占据一个字节</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tag|leg|value来存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其中的leg记录了字符串的长度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不同的数据类型有不同的大小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value是bool型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>我们就知道肯定</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>占了一个字节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>程序从leg后面直接读一个字节就可以解析出value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，非常快，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>json则需要进行字符串解析才可以办到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>什么是 Netty 的零拷贝？DirectByteBuffer</t>
@@ -1454,98 +2088,465 @@
     <t>没有CPU拷贝</t>
   </si>
   <si>
-    <t>常用的零拷贝有MMAP(内存映射）和sendfile。</t>
-  </si>
-  <si>
-    <t>DMA:直接内存拷贝，不适用CPU</t>
+    <r>
+      <t>常用的零拷贝有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MMAP(内存映射）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sendfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DMA:直接内存拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，不适用CPU</t>
+    </r>
   </si>
   <si>
     <t>传统的读写：4次拷贝</t>
   </si>
   <si>
-    <t>1 磁盘上的数据通过DMA拷贝到内核缓冲区，</t>
-  </si>
-  <si>
-    <t>2 通过CPU拷贝到用户缓存，用户对数据进行修改，</t>
-  </si>
-  <si>
-    <t>3 然后通过CPU拷贝到socket buffer，</t>
-  </si>
-  <si>
-    <t>4 再通过DMA拷贝到协议引擎中</t>
-  </si>
-  <si>
-    <t>mmap：3次拷贝，将文件映射到内核缓冲区中，同时，用户空间可以共享内核空间的数据。</t>
-  </si>
-  <si>
-    <t>在进行网络传输时，可以减少内核空间到用户空间的拷贝次数</t>
-  </si>
-  <si>
-    <t>2 因为用户空间可以共享内核空间的数据</t>
-  </si>
-  <si>
-    <t>所以直接在内核空间中修改，再通过CPU拷贝到socketbuffer</t>
-  </si>
-  <si>
-    <t>3 再通过DMA拷贝到协议引擎中</t>
+    <r>
+      <t>1 磁盘上的数据通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DMA拷贝到内核缓冲区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2 通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU拷贝到用户缓存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用户对数据</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 然后通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU拷贝到socket buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4 再通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DMA拷贝到协议引擎中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>mmap：3次拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件映射到内核缓冲区中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，同时，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户空间可以共享内核空间的数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在进行网络传输时，可以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减少内核空间到用户空间的拷贝次数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因为用户空间可以共享内核空间的数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以直接在内核空间中修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再通过CPU拷贝到socketbuffer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3 再通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DMA拷贝到协议引擎中</t>
+    </r>
   </si>
   <si>
     <t>sendFile，2次拷贝（0拷贝）</t>
   </si>
   <si>
-    <t>2 内核缓冲区DMA拷贝到协议引擎</t>
-  </si>
-  <si>
-    <t>注意：其实还是有一次CPU拷贝的，内核缓冲区到socketbuffer</t>
+    <r>
+      <t xml:space="preserve">采用 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DIRECT BUFFERS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堆外直接内存进行 Socket 读写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不需要CPU进行字节缓冲区的二次拷贝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内核缓冲区DMA拷贝到协议引擎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>其实还是有一次CPU拷贝的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内核缓冲区到socketbuffer</t>
+    </r>
   </si>
   <si>
     <t>只是拷贝信息很少，比如length，offset，可以忽略</t>
   </si>
   <si>
-    <t>Netty 的零拷贝主要包含三个方面：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netty 的接收和发送</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ByteBuffer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">采用 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DIRECT BUFFERS</t>
+    <t>堆外内存</t>
+  </si>
+  <si>
+    <r>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分配在Java虚拟机的堆以外的内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内存直接受操作系统管理（而不是虚拟机）</t>
     </r>
     <r>
       <rPr>
@@ -1557,16 +2558,21 @@
       </rPr>
       <t>，</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>使用堆外直接内存进行 Socket 读写</t>
+  </si>
+  <si>
+    <r>
+      <t>这样做的结果就是能够在一定程度上</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>减少垃圾回收对应用程序造成的影响</t>
     </r>
     <r>
       <rPr>
@@ -1587,7 +2593,50 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>不需要进行字节缓冲区的二次拷贝</t>
+      <t>NIO包下ByteBuffer来创建堆外内存。</t>
+    </r>
+  </si>
+  <si>
+    <t>为什么使用堆外内存</t>
+  </si>
+  <si>
+    <t>减少了垃圾回收</t>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堆外内存的话，堆外内存是直接受操作系统管理( 而不是虚拟机 )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。这样做的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>结果就是能保持一个较小的堆内内存，以减少垃圾收集对应用的影响</t>
     </r>
     <r>
       <rPr>
@@ -1601,53 +2650,58 @@
     </r>
   </si>
   <si>
-    <t>如果使用传统的堆内存（HEAP BUFFERS）进行 Socket 读写，JVM 会将堆内存 Buffer 拷贝一份到直接内存中，然后才写入 Socket 中。</t>
-  </si>
-  <si>
-    <t>相比于堆外直接内存，消息在发送过程中多了一次缓冲区的内存拷贝。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netty 提供了</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>组合 Buffer 对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，可以聚合多个 ByteBuffer 对象，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>用户可以像操作一个 Buffer 那样方便的对组合 Buffer 进行操作</t>
+    <t>提升复制速度(io效率)</t>
+  </si>
+  <si>
+    <r>
+      <t>堆内内存由JVM管理，属于“用户态”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>堆外内存由OS管理，属于“内核态”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从堆内向磁盘写数据时</t>
     </r>
     <r>
       <rPr>
@@ -1659,83 +2713,37 @@
       </rPr>
       <t>，</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>避免</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了传统通过内存拷贝的方式</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>将几个小 Buffer 合并成一个大的 Buffer。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netty 的文</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>件传输采用了 transferTo 方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，它可以</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>直接将文件缓冲区的数据发送到目标 Channel</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据会被先复制到堆外内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内核缓冲区</t>
     </r>
     <r>
       <rPr>
@@ -1756,7 +2764,147 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>避免了传统通过循环 write 方式导致的内存拷贝问题</t>
+      <t>然后再由OS写入磁盘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>使用堆外内存避免了_x0008_这个操作。</t>
+    </r>
+  </si>
+  <si>
+    <t>堆外内存申请</t>
+  </si>
+  <si>
+    <r>
+      <t>JDK的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ByteBuffer类提供了一个接口allocateDirect(int capacity)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>进行堆外内存的申请，底层通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unsafe.allocateMemory(size)实现。</t>
+    </r>
+  </si>
+  <si>
+    <t>Netty 和 Tomcat 的区别？</t>
+  </si>
+  <si>
+    <t>作用不同：</t>
+  </si>
+  <si>
+    <r>
+      <t>Tomcat 是 Servlet 容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以视为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Web 服务器</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Netty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是异步</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件驱动的网络应用程序框架</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和工具用于简化网络编程，例如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCP(传输控制协议)和UDP套接字服务器</t>
     </r>
     <r>
       <rPr>
@@ -1770,89 +2918,124 @@
     </r>
   </si>
   <si>
-    <t>堆外内存</t>
-  </si>
-  <si>
-    <t>对象分配在Java虚拟机的堆以外的内存，这些内存直接受操作系统管理（而不是虚拟机），</t>
-  </si>
-  <si>
-    <t>这样做的结果就是能够在一定程度上减少垃圾回收对应用程序造成的影响，NIO包下ByteBuffer来创建堆外内存。</t>
-  </si>
-  <si>
-    <t>为什么使用堆外内存</t>
-  </si>
-  <si>
-    <t>减少了垃圾回收</t>
-  </si>
-  <si>
-    <t>使用堆外内存的话，堆外内存是直接受操作系统管理( 而不是虚拟机 )。这样做的结果就是能保持一个较小的堆内内存，以减少垃圾收集对应用的影响。</t>
-  </si>
-  <si>
-    <t>提升复制速度(io效率)</t>
-  </si>
-  <si>
-    <t>堆内内存由JVM管理，属于“用户态”；而堆外内存由OS管理，属于“内核态”。如果从堆内向磁盘写数据时，</t>
-  </si>
-  <si>
-    <t>数据会被先复制到堆外内存，即内核缓冲区，然后再由OS写入磁盘，使用堆外内存避免了_x0008_这个操作。</t>
-  </si>
-  <si>
-    <t>堆外内存申请</t>
-  </si>
-  <si>
-    <t>JDK的ByteBuffer类提供了一个接口allocateDirect(int capacity)进行堆外内存的申请，底层通过unsafe.allocateMemory(size)实现。</t>
-  </si>
-  <si>
-    <t>Netty 和 Tomcat 的区别？</t>
-  </si>
-  <si>
-    <t>作用不同：</t>
-  </si>
-  <si>
-    <t>Tomcat 是 Servlet 容器，可以视为 Web 服务器</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Netty 是异步</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>事件驱动的网络应用程序框架</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>和工具用于简化网络编程，例如</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TCP和UDP套接字服务器</t>
+    <t>协议不同：</t>
+  </si>
+  <si>
+    <r>
+      <t>Tomcat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 是基于 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>http 协议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Web 服务器</t>
+    </r>
+  </si>
+  <si>
+    <t>Netty 能通过编程自定义各种协议，因为 Netty 本身自己能编码/解码字节流，所有 Netty 可以实现，</t>
+  </si>
+  <si>
+    <t>HTTP 服务器、FTP 服务器、UDP 服务器、RPC 服务器、WebSocket 服务器、Redis 的 Proxy 服务器、MySQL 的 Proxy 服务器等等</t>
+  </si>
+  <si>
+    <t>Netty 中有那种重要组件？</t>
+  </si>
+  <si>
+    <r>
+      <t>Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：Netty 网络操作抽象类，它除了包括基本的 I/O 操作，如 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">bind、connect、read、write </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>EventLoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：主要是配合 Channel 处理 I/O 操作，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用来处理连接的生命周期中所发生的事情</t>
     </r>
     <r>
       <rPr>
@@ -1866,85 +3049,240 @@
     </r>
   </si>
   <si>
-    <t>协议不同：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tomcat 是基于 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>http 协议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的 Web 服务器</t>
-    </r>
-  </si>
-  <si>
-    <t>Netty 能通过编程自定义各种协议，因为 Netty 本身自己能编码/解码字节流，所有 Netty 可以实现，</t>
-  </si>
-  <si>
-    <t>HTTP 服务器、FTP 服务器、UDP 服务器、RPC 服务器、WebSocket 服务器、Redis 的 Proxy 服务器、MySQL 的 Proxy 服务器等等</t>
-  </si>
-  <si>
-    <t>Netty 中有那种重要组件？</t>
-  </si>
-  <si>
-    <t>Channel：Netty 网络操作抽象类，它除了包括基本的 I/O 操作，如 bind、connect、read、write 等。</t>
-  </si>
-  <si>
-    <t>EventLoop：主要是配合 Channel 处理 I/O 操作，用来处理连接的生命周期中所发生的事情。</t>
-  </si>
-  <si>
-    <t>ChannelFuture：Netty 框架中所有的 I/O 操作都为异步的，因此我们需要 ChannelFuture 的 addListener()注册一个</t>
-  </si>
-  <si>
-    <t>ChannelFutureListener 监听事件，当操作执行成功或者失败时，监听就会自动触发返回结果。</t>
-  </si>
-  <si>
-    <t>ChannelHandler：充当了所有处理入站和出站数据的逻辑容器。ChannelHandler 主要用来处理各种事件，</t>
-  </si>
-  <si>
-    <t>这里的事件很广泛，比如可以是连接、数据接收、异常、数据转换等。</t>
-  </si>
-  <si>
-    <t>ChannelPipeline：为 ChannelHandler 链提供了容器，当 channel 创建时，就会被自动分配到它专属的 ChannelPipeline，这个关联是永久性的。</t>
+    <r>
+      <t>ChannelFuture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：Netty 框架中所有的 I/O 操作都为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>异步的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因此我们</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要 ChannelFuture 的 addListener()注册一个</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ChannelFutureListener</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 监听事件，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当操作执行成功或者失败时，监听就会自动触发返回结果。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ChannelHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：充当了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>所有处理入站和出站数据的逻辑容器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。ChannelHandler 主要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用来处理各种事件，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这里的事件很广泛，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比如可以是连接、数据接收、异常、数据转换等。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ChannelPipeline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：为 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelHandler 链提供了容器，当 channel 创建时，就会被自动分配到它专属的 ChannelPipeline，这个关联是永久性的。</t>
+    </r>
   </si>
   <si>
     <t>Netty 发送消息有几种方式？</t>
   </si>
   <si>
-    <t>直接写入 Channel 中，消息从 ChannelPipeline 当中尾部开始移动；</t>
-  </si>
-  <si>
-    <t>写入和 ChannelHandler 绑定的 ChannelHandlerContext 中，消息从 ChannelPipeline 中的下一个 ChannelHandler 中移动。</t>
+    <r>
+      <t>直接写入 Channel 中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，消息从 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelPipeline 当中尾部开始移动；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>写入和 ChannelHandler 绑定的 ChannelHandlerContext 中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，消息从</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ChannelPipeline 中的下一个 ChannelHandler 中移动。</t>
+    </r>
   </si>
   <si>
     <t>默认情况 Netty 起多少线程？何时启动？</t>
   </si>
   <si>
-    <t>Netty 默认是 CPU 处理器数的两倍，bind 完之后启动。</t>
+    <r>
+      <t xml:space="preserve">Netty 默认是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CPU 处理器数的两倍，bind 完之后启动。</t>
+    </r>
   </si>
   <si>
     <t>Netty 支持哪些心跳类型设置？</t>
@@ -1971,7 +3309,62 @@
     <t>Reactor模式（反应，分发）</t>
   </si>
   <si>
-    <t>通过IO复用监听每个请求的事件，然后分发给某个线程，网络服务高并发处理框架</t>
+    <r>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IO复用监听每个请求的事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分发给某个线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络服务高并发处理框架</t>
+    </r>
   </si>
   <si>
     <t>多个请求同时传给ServiceHandler</t>
@@ -1998,34 +3391,175 @@
     <t>Reactor多线程（NIO）</t>
   </si>
   <si>
-    <t>1.Reactor对象通过select监控客户端请求事件，收到事件后，通过dispatch进行分发</t>
-  </si>
-  <si>
-    <t>2.如果简历链接请求，则由acceptor通过accept处理链接请求，创建一个Handler对象</t>
+    <r>
+      <t>1.Reactor对象通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select监控客户端请求事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，收到事件后，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过dispatch进行分发</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建立链接请求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceptor通过accept处理链接请求，创建一个Handler对象</t>
+    </r>
   </si>
   <si>
     <t>处理完成连接后的各种事件</t>
   </si>
   <si>
-    <t>3.如果不是链接请求，则由reactor分发调用连接对应的Handler来处理</t>
-  </si>
-  <si>
-    <t>4.Handler只负责响应事件，不做具体的业务处理，通过read读取数据后，会分发给后面的worker</t>
+    <r>
+      <t>3.如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不是链接请求，则由reactor分发调用连接对应的Handler来处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Handler只负责响应事件，不做具体的业务处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过read读取数据后，会分发给后面的worker</t>
+    </r>
   </si>
   <si>
     <t>线程池的某个线程处理业务</t>
   </si>
   <si>
-    <t>5.worker线程池分配独立线程完成真正的业务，并将结果返回给Handler</t>
-  </si>
-  <si>
-    <t>6.Handler收到响应后，通过send将结果返回给client</t>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.worker线程池分配独立线程完成真正的业务，并将结果返回给Handler</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Handler收到响应后，通过send将结果返回给client</t>
+    </r>
   </si>
   <si>
     <t>优缺点：</t>
   </si>
   <si>
-    <t>可以充分的利用多和cpu的处理能力来进行业务处理</t>
+    <t>可以充分的利用多核cpu的处理能力来进行业务处理</t>
   </si>
   <si>
     <r>
@@ -2064,28 +3598,268 @@
     <t>Reactor主从多线程</t>
   </si>
   <si>
-    <t>1 Reactor主线程MainReactor对象通过select监听连接事件后，通过acceptor处理连接事件</t>
-  </si>
-  <si>
-    <t>2.当acceptor处理连接事件后，mainreactor将连接分配给subreactor</t>
-  </si>
-  <si>
-    <t>3.subrector将连接加入到连接队列进行监控，并创建handler进行各种事件处理</t>
-  </si>
-  <si>
-    <t>4.当有新事件发生时，subreactor就会调用对应的handler处理</t>
-  </si>
-  <si>
-    <t>5.Handler通过read读取数据，分发给后面的worker线程处理</t>
-  </si>
-  <si>
-    <t>6.worker线程池分配独立的worker线程进行业务处理，并返回结果</t>
-  </si>
-  <si>
-    <t>7.Handler收到响应的结果后，在通过send将结果返回给client</t>
-  </si>
-  <si>
-    <t>8.Reactor主线程可以对应多个Reactor子线程，MainRecator可以关联多个SubReactor</t>
+    <r>
+      <t>1 Reactor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主线程MainReactor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过select监听连接事件后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通过acceptor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理连接事件</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当acceptor处理连接事件后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，mainreactor将连接</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分配给subreactor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.subrector</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将连接加入到连接队列进行监控</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建handler进行各种事件处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有新事件发生时，subreactor就会调用对应的handler处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.Handler通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read读取数据，分发给后面的worker线程处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>worker线程池分配独立的worker线程进行业务处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并返回结果</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Handler收到响应的结果后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，在通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>send将结果返回给client</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>8.Reactor</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主线程可以对应多个Reactor子线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MainRecator可以关联多个SubReactor</t>
+    </r>
   </si>
   <si>
     <t>Netty模型</t>
@@ -2094,37 +3868,274 @@
     <t>1.Netty抽象出来两个线程池</t>
   </si>
   <si>
-    <t>BossGroup专门负责接收客户端的连接</t>
-  </si>
-  <si>
-    <t>WorkerGroup专门负责网络的读写</t>
-  </si>
-  <si>
-    <t>2.BossGroup和WorkerGroup类型都是NioEventLoopGroup</t>
-  </si>
-  <si>
-    <t>3.NioEventLoopGroup相当于一个事件循环组，这个组中含有多个事件循环</t>
+    <r>
+      <t>BossGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专门负责接收</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端的连接</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WorkerGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>专门负责</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>网络的读写</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BossGroup和WorkerGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>类</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>型都是NioEventLoopGroup</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NioEventLoopGroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>相当于一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>事件循环组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这个组中含有多个事件循环</t>
+    </r>
   </si>
   <si>
     <t>每一个事件循环都是NioEventLoop</t>
   </si>
   <si>
-    <t>4.NioEventLoop表示一个不断循环的执行处理任务的线程，每个NioEventLoop</t>
-  </si>
-  <si>
-    <t>都有一个selector，用于监听绑定在其上的socket的网络通讯</t>
+    <r>
+      <t>4.NioEventLoop表示一个不断循环的执行</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>处理任务的线程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个NioEventLoop都有一个selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>监听绑定在其上的socket的网络通讯</t>
+    </r>
   </si>
   <si>
     <t>5.NioEventLoop可以有多个线程，即可以含有多个NioEventLoop</t>
   </si>
   <si>
-    <t>6.每个Boss NioEventLoop循环执行的步骤有3步</t>
+    <r>
+      <t>6.每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Boss NioEventLoop循环执行的步骤有3步</t>
+    </r>
   </si>
   <si>
     <t>轮训accept事件</t>
   </si>
   <si>
-    <t>处理accept事件，与client简历连接，生成NioEventLoop,并将其</t>
+    <r>
+      <t>处理accept事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>与client建立连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生成NioEventLoop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,并将其</t>
+    </r>
   </si>
   <si>
     <t>注册到worker NioEventLoop上的selector</t>
@@ -2133,7 +4144,20 @@
     <t>处理任务队列的任务（runAllTasks）</t>
   </si>
   <si>
-    <t>7.每个Worker NioEventLoop循环执行的步骤</t>
+    <r>
+      <t>7.每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Worker NioEventLoop循环执行的步骤</t>
+    </r>
   </si>
   <si>
     <t>轮训read,write事件</t>
@@ -2145,10 +4169,46 @@
     <t>处理任务队列的任务，runAllTAsks</t>
   </si>
   <si>
-    <t>8.每个Worker NioEventLoop处理业务时，会使用pipeline管道，</t>
-  </si>
-  <si>
-    <t>管道中包含了channel，通过管道可以获取到对应通道</t>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个Worker NioEventLoop处理业务时，会使用pipeline管道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>管道中包含了channel，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过管道可以获取到对应通道</t>
+    </r>
   </si>
   <si>
     <t>管道中维护了多个处理器</t>
@@ -2385,14 +4445,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>LineBased</t>
     </r>
     <r>
@@ -2428,6 +4480,1809 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>对于通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分隔符进行粘包和拆包问题的处理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，Netty提供了两个编解码的类，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LineBased</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrameDecoder的作用主要是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过换行符，即\n或者\r\n对数据进行处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Delimiter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BasedFrameDecoder的作用则是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用户指定的分隔符对数据进行粘包和拆包处理</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LengthFieldBased</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrameDecoder与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LengthFieldPrepender</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要配合起来使用，其实本质上来讲，这两者一个是解码，一个是编码的关系。</t>
+    </r>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>作用就是可以通过pipeline，用户可以往channel写数据，从channel读数据</t>
+  </si>
+  <si>
+    <t>本质是一个双向链表</t>
+  </si>
+  <si>
+    <t>他可以调用当数据出站的方法和入站的方法，同时也能遍历内部的链表。</t>
+  </si>
+  <si>
+    <t>Netty任务队列有3中</t>
+  </si>
+  <si>
+    <t>普通任务 TaskQueue</t>
+  </si>
+  <si>
+    <t>定时任务 scheduledTaskQueue</t>
+  </si>
+  <si>
+    <t>非当前Reactor线程调用Channel的各种方法</t>
+  </si>
+  <si>
+    <t>ChannelFuture</t>
+  </si>
+  <si>
+    <r>
+      <t>接受异步IO操作的结果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，可以通过它提供的方法来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检测执行是否完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如检测计算等等</t>
+    </r>
+  </si>
+  <si>
+    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
+  </si>
+  <si>
+    <t>Future-Listener机制</t>
+  </si>
+  <si>
+    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
+  </si>
+  <si>
+    <t>注册监听函数来执行完成后的操作</t>
+  </si>
+  <si>
+    <t>相比传统阻塞IO，执行IO操作后线程会被阻塞住，知道操作完成</t>
+  </si>
+  <si>
+    <t>异步处理好处是不会造成线程阻塞，线程在IO操作期间可以执行别的程序</t>
+  </si>
+  <si>
+    <t>ByteBuf</t>
+  </si>
+  <si>
+    <r>
+      <t>Netty里的内存管理是通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过ByteBuf这个类</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>作为桥梁连接着</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>业务代码与jdk底层的内存。</t>
+    </r>
+  </si>
+  <si>
+    <t>handler()和childHandler()的主要区别</t>
+  </si>
+  <si>
+    <t>handler()对应的是bossGroup，是发生在初始化的时候，</t>
+  </si>
+  <si>
+    <t>childHandler()对应的是workerGroup，是发生在客户端连接之后。</t>
+  </si>
+  <si>
+    <t>Bootstrap,ServerBootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap用于配置Netty启动类，Bootstrap用于客户端配置，ServerBootstrap用户服务端配置</t>
+  </si>
+  <si>
+    <t>Bootstrap参数说明</t>
+  </si>
+  <si>
+    <t>group:</t>
+  </si>
+  <si>
+    <t>Server配置时需要传入两个EvenLoopGroup，一个boss，一个worker</t>
+  </si>
+  <si>
+    <t>客户端配置时只要一个EvenLoopGroup</t>
+  </si>
+  <si>
+    <t>channel：用来设置一个服务器端的通道实现</t>
+  </si>
+  <si>
+    <t>option：用来给ServerChannel添加配置</t>
+  </si>
+  <si>
+    <t>childOption：用来给接收到的通道添加配置</t>
+  </si>
+  <si>
+    <t>childHandler：用来设置业务处理类（自定义的Handler，需要创建一个通道初始化对象ChannelInitializer）</t>
+  </si>
+  <si>
+    <t>bind：用于服务器端，用来设置占用的端口号</t>
+  </si>
+  <si>
+    <t>connect：用于客户端，用来连接服务器端</t>
+  </si>
+  <si>
+    <t>ChannelOption</t>
+  </si>
+  <si>
+    <t>创建Channel实例后需要设置ChannelOption参数</t>
+  </si>
+  <si>
+    <t>SO_BROADCAST：初始化服务器可连接队列大小</t>
+  </si>
+  <si>
+    <t>SO_KEEPALIVE：一直保持连接活动状态</t>
+  </si>
+  <si>
+    <t>EvenLoopGroup/NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>EvenLoopGrou是一组EventLoop的抽象，Netty为了更好的利用多和CPU资源，一般会有多个EventLoop同事工作</t>
+  </si>
+  <si>
+    <t>每个EventLoop维护一个Selector实例</t>
+  </si>
+  <si>
+    <t>Unpooled</t>
+  </si>
+  <si>
+    <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
+  </si>
+  <si>
+    <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
+  </si>
+  <si>
+    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
+  </si>
+  <si>
+    <r>
+      <t>3.通过 bind 方法启动，内部重要方法为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> initAndRegister 和 dobind </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.initAndRegister 方法会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>反射创建 NioServerSocketChannel 及其相关的 NIO 的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">， </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同时也含有NioServerSocketChannelConfig 对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。然后向 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>这个处理器</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用于分配接受的 请求给 worker 线程池。</t>
+    </r>
+  </si>
+  <si>
+    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
+  </si>
+  <si>
+    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
+  </si>
+  <si>
+    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
+  </si>
+  <si>
+    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
+  </si>
+  <si>
+    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
+  </si>
+  <si>
+    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
+  </si>
+  <si>
+    <t>doReadMessages</t>
+  </si>
+  <si>
+    <t>fireChannelRead</t>
+  </si>
+  <si>
+    <t>ChannelPipeline调度Handle</t>
+  </si>
+  <si>
+    <t>ChannelPipeline</t>
+  </si>
+  <si>
+    <r>
+      <t>ChannelPipeline类是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实例对象的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>链表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，用于处理或截获通道的Inbound和Outbound数据。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ChannelPipeline中维护了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由ChannelHandlerContext组成的双向链表</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>每个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelHandlerContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中关联了一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelHandler</t>
+    </r>
+  </si>
+  <si>
+    <t>InboundHandler顺序执行，OutboundHandler逆序执行</t>
+  </si>
+  <si>
+    <t>InboundHandler之间传递数据，通过ctx.fireChannelRead(msg)</t>
+  </si>
+  <si>
+    <t>InboundHandler通过ctx.write(msg)，则会传递到outboundHandler</t>
+  </si>
+  <si>
+    <t>使用ctx.write(msg)传递消息，Inbound需要放在结尾，在Outbound之后，不然outboundhandler会不执行；</t>
+  </si>
+  <si>
+    <t>但是使用channel.write(msg)、pipline.write(msg)情况会不一致，都会执行,那是因为channel和pipline会贯穿整个流。</t>
+  </si>
+  <si>
+    <t>outBound和Inbound谁先执行，针对客户端和服务端而言，客户端是发起请求再接受数据，先outbound再inbound，服务端则相反。</t>
+  </si>
+  <si>
+    <t>入站事件从链表的head往后传递到最后一个入站的handler</t>
+  </si>
+  <si>
+    <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
+  </si>
+  <si>
+    <t>ChannelHandler</t>
+  </si>
+  <si>
+    <t>ChannelHandler下主要是两个子接口</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandler(入站): 处理输入数据和Channel状态类型改变。</t>
+  </si>
+  <si>
+    <t>适配器: ChannelInboundHandlerAdapter（适配器设计模式）</t>
+  </si>
+  <si>
+    <t>常用的: SimpleChannelInboundHandler</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandler(出站): 处理输出数据</t>
+  </si>
+  <si>
+    <t>适配器: ChannelOutboundHandlerAdapter</t>
+  </si>
+  <si>
+    <t>每一个Handler都一定会处理出站或者入站</t>
+  </si>
+  <si>
+    <t>例如对于入站的Handler可能会继承SimpleChannelInboundHandler或者ChannelInboundHandlerAdapter,</t>
+  </si>
+  <si>
+    <r>
+      <t>而</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SimpleChannelInboundHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>又是继承于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelInboundHandlerAdapter</t>
+    </r>
+  </si>
+  <si>
+    <t>Channel 生命周期(执行顺序也是从上倒下)</t>
+  </si>
+  <si>
+    <t>（1）channelRegistered: channel注册到一个EventLoop。</t>
+  </si>
+  <si>
+    <t>（2）channelActive: 变为活跃状态（连接到了远程主机），可以接受和发送数据</t>
+  </si>
+  <si>
+    <t>（3）channelInactive: channel处于非活跃状态，没有连接到远程主机</t>
+  </si>
+  <si>
+    <t>（4）channelUnregistered: channel已经创建，但是未注册到一个EventLoop里面，也就是没有和Selector绑定</t>
+  </si>
+  <si>
+    <t>ChannelHandler 生命周期</t>
+  </si>
+  <si>
+    <t>handlerAdded： 当 ChannelHandler 添加到 ChannelPipeline 调用</t>
+  </si>
+  <si>
+    <t>handlerRemoved： 当 ChannelHandler 从 ChannelPipeline 移除时调用</t>
+  </si>
+  <si>
+    <t>exceptionCaught： 当 ChannelPipeline 执行抛出异常时调用</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandler：处理入站IO事件（读）</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandler：处理出站IO事件(写）</t>
+  </si>
+  <si>
+    <t>适配器：</t>
+  </si>
+  <si>
+    <t>ChannelInboundHandlerAdapter：处理入站IO事件</t>
+  </si>
+  <si>
+    <t>ChannelOutboundHandlerAdapter：处理出站IO事件</t>
+  </si>
+  <si>
+    <t>出栈入栈的说明：</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从客户端到服务器端，称为出站ChannelOutboundHandler</t>
+  </si>
+  <si>
+    <t>事件的运动方向是从服务器端到客户端，称为入站ChannelInboundHandler</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>ChannelPipeline并不是直接管理ChannelHandler，而是通过ChannelHandlerContext来间接管理</t>
+  </si>
+  <si>
+    <r>
+      <t>ChannelHandlerContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实际类型是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DefaultChannelHandlerContext</t>
+    </r>
+  </si>
+  <si>
+    <t>保存Channel相关的所有上下文信息，同事关联一个ChannelHandler对象</t>
+  </si>
+  <si>
+    <t>包含一个具体的时间处理器ChannelHandler</t>
+  </si>
+  <si>
+    <t>也绑定了对应的pipeline和Channel的信息，方便对ChannelHandler调用</t>
+  </si>
+  <si>
+    <t>属于ChannelPipeline和ChannelHandler的桥梁</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext源码分析</t>
+  </si>
+  <si>
+    <t>Netty心跳</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">netty 提供的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IdleStateHandler，ReadTimeoutHandler,WriteTimeoutHandler三个参数</t>
+    </r>
+  </si>
+  <si>
+    <t>IdleStateHandler包含以下三个定时任务类：</t>
+  </si>
+  <si>
+    <t>long readerIdleTime : 表示多长时间没有读, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long writerIdleTime : 表示多长时间没有写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>long allIdleTime : 表示多长时间没有读写, 就会发送一个心跳检测包检测是否连接</t>
+  </si>
+  <si>
+    <t>在一段时间内读取，写入或读写同时执行的操作没有执行的时候，触发IdleStateEvent</t>
+  </si>
+  <si>
+    <t>当 IdleStateEvent 触发后 , 就会传递给管道 的下一个handler去处理</t>
+  </si>
+  <si>
+    <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
+  </si>
+  <si>
+    <t>Netty心跳源码解析（IdleStateHandler)</t>
+  </si>
+  <si>
+    <t>IdleStateHandler</t>
+  </si>
+  <si>
+    <r>
+      <t>当连接的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空闲时间（读或者写）太长时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，将会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发一个 IdleStateEvent 事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">然后，你可以通过你的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ChannelInboundHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 中重写 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userEventTrigged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 方法来处理该事件。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当服务器和客户端</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>没有任何读写交互时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>超过了给定的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">用户 handler 的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>userEventTriggered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 方法。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>用户</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以在这个方法中尝试向对方</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发送信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，如果发送</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失败，则关闭连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IdleStateHandler 的实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>基于 EventLoop 的定时任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每次读写都会记录一个值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在定时任务运行的时候，通过计算</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当前时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上次事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发生时间的结果，来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>判断是否空闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">内部有 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3 个定时任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，分别对应</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>读事件，写事件，读写事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。通常用户监听读写事件就足够了。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IdleStateHandler 内部也考虑了一些</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>极端情况</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客户端接收缓慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一次接收数据的速度超过了设置的空闲时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Netty 通过构造方法中的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observeOutput 属性来决定是否对出站缓冲区的情况进行判断</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果出站缓慢，Netty 不认为这是空闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也就不触发空闲事件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但第一次无论如何也是要触发的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第一次无法判断是出站缓慢还是空闲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。当然，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出站缓慢的话，OOM 比空闲的问题更大。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以，当你的应用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出现了内存溢出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，OOM之类，并且写空闲极少发生（使用了 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>observeOutput 为 true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>），那么就需要注意是不是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据出站速度过慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>默认 observeOutput 是 false，意思是，即使你的应用出站缓慢，Netty 认为是写空闲。</t>
+  </si>
+  <si>
+    <t>可见这个 observeOutput 的作用好像不是那么重要，如果真的发生了出站缓慢，判断是否空闲根本就不重要了，重要的是 OOM。所以 Netty 选择了默认 false。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">还有一个注意的地方：刚开始我们说的 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ReadTimeoutHandler ，就是继承自 IdleStateHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当触发读</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>空闲事件的时候，就触发 ctx.fireExceptionCaught 方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，并传入一个</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ReadTimeoutException，然后关闭 Socket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">而 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WriteTimeoutHandler 的实现不是基于 IdleStateHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 的，他的原理是，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当调用 write 方法的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创建一个定时任务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，任务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>内容是根据传入的 promise 的完成情况来判断是否超出了写的时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当定时任务根据指定时间开始运行，发现 promise 的 isDone 方法返回 false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，表明还没有写完，说明超时了，则抛出异常。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当 write 方法完成后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会打断定时任务。</t>
+    </r>
+  </si>
+  <si>
+    <t>Eventloop源码</t>
+  </si>
+  <si>
+    <t>继承图</t>
+  </si>
+  <si>
+    <t>handler中加入线程池和Context中添加线程池源码</t>
+  </si>
+  <si>
+    <t>NIO写一个简单的客户端，服务器通讯</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>1 创建ServerSocketChannel</t>
+  </si>
+  <si>
+    <t>2 绑定一个端口6666, 在服务器端监听</t>
+  </si>
+  <si>
+    <t>3 设置为非阻塞</t>
+  </si>
+  <si>
+    <t>4 得到一个Selecor对象</t>
+  </si>
+  <si>
+    <t>5 把 serverSocketChannel 注册到  selector</t>
+  </si>
+  <si>
+    <t>6 循环等待客户端连接</t>
+  </si>
+  <si>
+    <t>如果有selector中的selectedKey大于0就取到相关的 selectionKey集合</t>
+  </si>
+  <si>
+    <t>遍历 Set&lt;SelectionKey&gt;，判断SelectedKey的事件类型，对应不同的事件做不同的处理</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>1 创建客户端socket</t>
+  </si>
+  <si>
+    <t>2 设置为非阻塞</t>
+  </si>
+  <si>
+    <t>3 读取服务端的IP和端口号</t>
+  </si>
+  <si>
+    <t>4 连接服务器</t>
+  </si>
+  <si>
+    <t>5 连接成功，发送数据，将字符串中的数据以字节的方式放到缓冲中</t>
+  </si>
+  <si>
+    <t>6 发送数据，将buffer数据写入channel</t>
+  </si>
+  <si>
+    <t>TCP、UDP的区别</t>
+  </si>
+  <si>
+    <t>TCP面向连接（如打电话要先拨号建立连接）;UDP是无连接的，即发送数据之前不需要建立连接</t>
+  </si>
+  <si>
+    <t>TCP连接传送的数据，无差错，不丢失，不重复，且按序到达;UDP尽最大努力交付，即不保证可靠交付</t>
+  </si>
+  <si>
+    <t>TCP面向字节流，实际上是TCP把数据看成一连串无结构的字节流;UDP是面向报文的</t>
+  </si>
+  <si>
+    <t>UDP没有拥塞控制，因此网络出现拥塞不会使源主机的发送速率降低（对实时应用很有用，如IP电话，实时视频会议等）</t>
+  </si>
+  <si>
+    <t>每一条TCP连接只能是点到点的;UDP支持一对一，一对多，多对一和多对多的交互通信</t>
+  </si>
+  <si>
+    <t>TCP首部开销20字节;UDP的首部开销小，只有8个字节</t>
+  </si>
+  <si>
+    <t>TCP的逻辑通信信道是全双工的可靠信道，UDP则是不可靠信道</t>
+  </si>
+  <si>
+    <t>TCP协议如何保证可靠传输？</t>
+  </si>
+  <si>
+    <t>TCP的握手、挥手机制？</t>
+  </si>
+  <si>
+    <t>首先时第一次握手，客户机给服务器发送SYN报文</t>
+  </si>
+  <si>
+    <t>然后是第二次握手，服务器接收到这个SYN包，反馈客户机ACK</t>
+  </si>
+  <si>
+    <t>最后是第三次握手：客户机接收到服务器的报文，反馈给服务器成功接受的信息。然后这个TCP连接就建立了</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LineBased</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrameDecoder与</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DelimiterBased</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FrameDecoder</t>
+    </r>
+  </si>
+  <si>
     <t>对于通过分隔符进行粘包和拆包问题的处理，Netty提供了两个编解码的类，</t>
   </si>
   <si>
@@ -2441,378 +6296,6 @@
   </si>
   <si>
     <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender需要配合起来使用，其实本质上来讲，这两者一个是解码，一个是编码的关系。</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>本质是一个双向链表</t>
-  </si>
-  <si>
-    <t>Netty任务队列有3中</t>
-  </si>
-  <si>
-    <t>普通任务 TaskQueue</t>
-  </si>
-  <si>
-    <t>定时任务 scheduledTaskQueue</t>
-  </si>
-  <si>
-    <t>非当前Reactor线程调用Channel的各种方法</t>
-  </si>
-  <si>
-    <t>ChannelFuture</t>
-  </si>
-  <si>
-    <t>接受异步IO操作的结果，可以通过它提供的方法来检测执行是否完成，比如检测计算等等</t>
-  </si>
-  <si>
-    <t>是一个接口，可以添加监听器，当监听的事件发生时，就会通知到监听器</t>
-  </si>
-  <si>
-    <t>Future-Listener机制</t>
-  </si>
-  <si>
-    <t>当Future对象刚刚创建时，处于非完成状态，调用者可以通过返回的ChannelFuture来获取操作执行的状态，</t>
-  </si>
-  <si>
-    <t>注册监听函数来执行完成后的操作</t>
-  </si>
-  <si>
-    <t>相比传统阻塞IO，执行IO操作后线程会被阻塞住，知道操作完成</t>
-  </si>
-  <si>
-    <t>异步处理好处是不会造成线程阻塞，线程在IO操作期间可以执行别的程序</t>
-  </si>
-  <si>
-    <t>ByteBuf</t>
-  </si>
-  <si>
-    <t>Netty里的内存管理是通过ByteBuf这个类作为桥梁连接着业务代码与jdk底层的内存。</t>
-  </si>
-  <si>
-    <t>handler()和childHandler()的主要区别</t>
-  </si>
-  <si>
-    <t>handler()对应的是bossGroup，是发生在初始化的时候，</t>
-  </si>
-  <si>
-    <t>childHandler()对应的是workerGroup，是发生在客户端连接之后。</t>
-  </si>
-  <si>
-    <t>Bootstrap,ServerBootstrap</t>
-  </si>
-  <si>
-    <t>Bootstrap用于配置Netty启动类，Bootstrap用于客户端配置，ServerBootstrap用户服务端配置</t>
-  </si>
-  <si>
-    <t>Bootstrap参数说明</t>
-  </si>
-  <si>
-    <t>group:</t>
-  </si>
-  <si>
-    <t>Server配置时需要传入两个EvenLoopGroup，一个boss，一个worker</t>
-  </si>
-  <si>
-    <t>客户端配置时只要一个EvenLoopGroup</t>
-  </si>
-  <si>
-    <t>channel：用来设置一个服务器端的通道实现</t>
-  </si>
-  <si>
-    <t>option：用来给ServerChannel添加配置</t>
-  </si>
-  <si>
-    <t>childOption：用来给接收到的通道添加配置</t>
-  </si>
-  <si>
-    <t>childHandler：用来设置业务处理类（自定义的Handler，需要创建一个通道初始化对象ChannelInitializer）</t>
-  </si>
-  <si>
-    <t>bind：用于服务器端，用来设置占用的端口号</t>
-  </si>
-  <si>
-    <t>connect：用于客户端，用来连接服务器端</t>
-  </si>
-  <si>
-    <t>ChannelHandler</t>
-  </si>
-  <si>
-    <t>ChannelInboundHandler：处理入站IO事件（读）</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandler：处理出站IO事件(写）</t>
-  </si>
-  <si>
-    <t>适配器：</t>
-  </si>
-  <si>
-    <t>ChannelInboundHandlerAdapter：处理入站IO事件</t>
-  </si>
-  <si>
-    <t>ChannelOutboundHandlerAdapter：处理出站IO事件</t>
-  </si>
-  <si>
-    <t>出栈入栈的说明：</t>
-  </si>
-  <si>
-    <t>事件的运动方向是从客户端到服务器端，称为出站ChannelOutboundHandler</t>
-  </si>
-  <si>
-    <t>事件的运动方向是从服务器端到客户端，称为入站ChannelInboundHandler</t>
-  </si>
-  <si>
-    <t>pipeline，ChannelPipeline</t>
-  </si>
-  <si>
-    <t>ChannelPipeline：Handler集合，负责处理和拦截inbound/outbound的事件和操作，相当于Netty链</t>
-  </si>
-  <si>
-    <t>一个Channel包含一个ChannelPipeline</t>
-  </si>
-  <si>
-    <t>ChannelPipeline中维护了一个由ChannelHandlerContext组成的双向链表</t>
-  </si>
-  <si>
-    <t>每个ChannelHandlerContext中关联了一个ChannelHandler</t>
-  </si>
-  <si>
-    <t>入站事件从链表的head往后传递到最后一个入站的handler</t>
-  </si>
-  <si>
-    <t>出站事件会从链表tail往前传递到最前一个出站的handler</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext</t>
-  </si>
-  <si>
-    <t>实际类型是DefaultChannelHandlerContext</t>
-  </si>
-  <si>
-    <t>保存Channel相关的所有上下文信息，同事关联一个ChannelHandler对象</t>
-  </si>
-  <si>
-    <t>包含一个具体的时间处理器ChannelHandler</t>
-  </si>
-  <si>
-    <t>也绑定了对应的pipeline和Channel的信息，方便对ChannelHandler调用</t>
-  </si>
-  <si>
-    <t>ChannelOption</t>
-  </si>
-  <si>
-    <t>创建Channel实例后需要设置ChannelOption参数</t>
-  </si>
-  <si>
-    <t>SO_BROADCAST：初始化服务器可连接队列大小</t>
-  </si>
-  <si>
-    <t>SO_KEEPALIVE：一直保持连接活动状态</t>
-  </si>
-  <si>
-    <t>EvenLoopGroup/NioEventLoopGroup</t>
-  </si>
-  <si>
-    <t>EvenLoopGrou是一组EventLoop的抽象，Netty为了更好的利用多和CPU资源，一般会有多个EventLoop同事工作</t>
-  </si>
-  <si>
-    <t>每个EventLoop维护一个Selector实例</t>
-  </si>
-  <si>
-    <t>Unpooled</t>
-  </si>
-  <si>
-    <t>Netty提供一个专门用来操作缓冲区的工具（数据容器）</t>
-  </si>
-  <si>
-    <t>Netty心跳</t>
-  </si>
-  <si>
-    <t>netty 提供的 IdleStateHandler三个参数</t>
-  </si>
-  <si>
-    <t>long readerIdleTime : 表示多长时间没有读, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>long writerIdleTime : 表示多长时间没有写, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>long allIdleTime : 表示多长时间没有读写, 就会发送一个心跳检测包检测是否连接</t>
-  </si>
-  <si>
-    <t>在一段时间内读取，写入或读写同时执行的操作没有执行的时候，触发IdleStateEvent</t>
-  </si>
-  <si>
-    <t>当 IdleStateEvent 触发后 , 就会传递给管道 的下一个handler去处理</t>
-  </si>
-  <si>
-    <t>通过调用(触发)下一个handler 的 userEventTiggered</t>
-  </si>
-  <si>
-    <t>Netty启动过程源码分析</t>
-  </si>
-  <si>
-    <t>1.首先创建2个 EventLoopGroup 线程池数组。数组默认大小CPU*2，方便chooser选择线程池时提高性能。</t>
-  </si>
-  <si>
-    <t>2.BootStrap 将 boss 设置为 group属性，将 worker 设置为 childer 属性。</t>
-  </si>
-  <si>
-    <t>3.通过 bind 方法启动，内部重要方法为 initAndRegister 和 dobind 方法。</t>
-  </si>
-  <si>
-    <t>4.initAndRegister 方法会反射创建 NioServerSocketChannel 及其相关的 NIO 的对象， pipeline ， unsafe，同时也为 pipeline 初始了 head 节点和 tail 节点。</t>
-  </si>
-  <si>
-    <t>同时也含有NioServerSocketChannelConfig 对象。然后向 pipeline 添加自定义的处理器和ServerBootstrapAcceptor 处理器。</t>
-  </si>
-  <si>
-    <t>这个处理器用于分配接受的 请求给 worker 线程池。</t>
-  </si>
-  <si>
-    <t>每次添加处理器都会创建一个相对应的 Context 作为 pipeline 的节点并包装 handler 对象。</t>
-  </si>
-  <si>
-    <t>注册过程中会调用 NioServerSocketChannel 的 doRegister 方法注册读事件。</t>
-  </si>
-  <si>
-    <t>5.在register0 方法成功以后调用在 dobind 方法中调用 doBind0 方法，该方法会 调用NioServerSocketChannel 的 doBind 方法对 JDK 的 channel 和端口进行绑定，</t>
-  </si>
-  <si>
-    <t>之后在调用 pipeline 的fireChannelActive 最后会调用 NioServerSocketChannel 的 doBeginRead 方法，</t>
-  </si>
-  <si>
-    <t>将感兴趣的事件设置为Accept，完成 Netty 服务器的所有启动，并开始监听连接事件。</t>
-  </si>
-  <si>
-    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
-  </si>
-  <si>
-    <t>doReadMessages</t>
-  </si>
-  <si>
-    <t>fireChannelRead</t>
-  </si>
-  <si>
-    <t>ChannelPipeline调度Handle</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext源码分析</t>
-  </si>
-  <si>
-    <t>Netty心跳源码解析（IdleStateHandler)</t>
-  </si>
-  <si>
-    <t>核心4个熟悉</t>
-  </si>
-  <si>
-    <t>observerOutput：是否考虑出站慢的情况，默认是false</t>
-  </si>
-  <si>
-    <t>因为在网络传输的时候可能因为网络问题传输速度比设定的超时时间长，但实际网络没有断开，</t>
-  </si>
-  <si>
-    <t>observerOutput就是用于这类情况</t>
-  </si>
-  <si>
-    <t>Eventloop源码</t>
-  </si>
-  <si>
-    <t>继承图</t>
-  </si>
-  <si>
-    <t>handler中加入线程池和Context中添加线程池源码</t>
-  </si>
-  <si>
-    <t>NIO写一个简单的客户端，服务器通讯</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>1 创建ServerSocketChannel</t>
-  </si>
-  <si>
-    <t>2 绑定一个端口6666, 在服务器端监听</t>
-  </si>
-  <si>
-    <t>3 设置为非阻塞</t>
-  </si>
-  <si>
-    <t>4 得到一个Selecor对象</t>
-  </si>
-  <si>
-    <t>5 把 serverSocketChannel 注册到  selector</t>
-  </si>
-  <si>
-    <t>6 循环等待客户端连接</t>
-  </si>
-  <si>
-    <t>如果有selector中的selectedKey大于0就取到相关的 selectionKey集合</t>
-  </si>
-  <si>
-    <t>遍历 Set&lt;SelectionKey&gt;，判断SelectedKey的事件类型，对应不同的事件做不同的处理</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>1 创建客户端socket</t>
-  </si>
-  <si>
-    <t>2 设置为非阻塞</t>
-  </si>
-  <si>
-    <t>3 读取服务端的IP和端口号</t>
-  </si>
-  <si>
-    <t>4 连接服务器</t>
-  </si>
-  <si>
-    <t>5 连接成功，发送数据，将字符串中的数据以字节的方式放到缓冲中</t>
-  </si>
-  <si>
-    <t>6 发送数据，将buffer数据写入channel</t>
-  </si>
-  <si>
-    <t>TCP、UDP的区别</t>
-  </si>
-  <si>
-    <t>TCP面向连接（如打电话要先拨号建立连接）;UDP是无连接的，即发送数据之前不需要建立连接</t>
-  </si>
-  <si>
-    <t>TCP连接传送的数据，无差错，不丢失，不重复，且按序到达;UDP尽最大努力交付，即不保证可靠交付</t>
-  </si>
-  <si>
-    <t>TCP面向字节流，实际上是TCP把数据看成一连串无结构的字节流;UDP是面向报文的</t>
-  </si>
-  <si>
-    <t>UDP没有拥塞控制，因此网络出现拥塞不会使源主机的发送速率降低（对实时应用很有用，如IP电话，实时视频会议等）</t>
-  </si>
-  <si>
-    <t>每一条TCP连接只能是点到点的;UDP支持一对一，一对多，多对一和多对多的交互通信</t>
-  </si>
-  <si>
-    <t>TCP首部开销20字节;UDP的首部开销小，只有8个字节</t>
-  </si>
-  <si>
-    <t>TCP的逻辑通信信道是全双工的可靠信道，UDP则是不可靠信道</t>
-  </si>
-  <si>
-    <t>TCP协议如何保证可靠传输？</t>
-  </si>
-  <si>
-    <t>TCP的握手、挥手机制？</t>
-  </si>
-  <si>
-    <t>首先时第一次握手，客户机给服务器发送SYN报文</t>
-  </si>
-  <si>
-    <t>然后是第二次握手，服务器接收到这个SYN包，反馈客户机ACK</t>
-  </si>
-  <si>
-    <t>最后是第三次握手：客户机接收到服务器的报文，反馈给服务器成功接受的信息。然后这个TCP连接就建立了</t>
   </si>
   <si>
     <t>一次正常的文件读写拷贝：4次转换，3次读写来实现</t>
@@ -3897,13 +7380,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>145</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3921,7 +7404,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6242050" y="22517100"/>
+          <a:off x="6242050" y="20459700"/>
           <a:ext cx="4064000" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3939,13 +7422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>27940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3963,7 +7446,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="24784050"/>
+          <a:off x="695325" y="22726650"/>
           <a:ext cx="4143375" cy="2504440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3979,16 +7462,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>188</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4005,7 +7488,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6905625" y="27660600"/>
+          <a:off x="7600950" y="25593675"/>
           <a:ext cx="5143500" cy="4714875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4022,14 +7505,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>191</xdr:row>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>181</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4047,7 +7530,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6924675" y="32889825"/>
+          <a:off x="7143750" y="31175325"/>
           <a:ext cx="4629150" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4063,16 +7546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>221</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4089,7 +7572,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6105525" y="37985700"/>
+          <a:off x="7191375" y="35994975"/>
           <a:ext cx="5553075" cy="4448175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4105,20 +7588,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>342</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>355</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="10" name="图片 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4131,49 +7614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="58769250"/>
-          <a:ext cx="4029075" cy="2181225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>358</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>367</xdr:row>
-      <xdr:rowOff>153670</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="61445775"/>
+          <a:off x="714375" y="65474850"/>
           <a:ext cx="6038850" cy="1630045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4191,13 +7632,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>329</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>404</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4208,14 +7649,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="66865500"/>
+          <a:off x="685800" y="56407050"/>
           <a:ext cx="7248525" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4233,13 +7674,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>458</xdr:row>
+      <xdr:row>496</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>512</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4250,14 +7691,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="78524100"/>
+          <a:off x="685800" y="85039200"/>
           <a:ext cx="4800600" cy="2819400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4275,13 +7716,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>451</xdr:row>
+      <xdr:row>489</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>507</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4292,14 +7733,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6838950" y="77457300"/>
+          <a:off x="6838950" y="83972400"/>
           <a:ext cx="7362825" cy="3114675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4317,13 +7758,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4334,14 +7775,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5133975" y="7058025"/>
+          <a:off x="5133975" y="6886575"/>
           <a:ext cx="2466975" cy="1373505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4358,15 +7799,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:rowOff>89535</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4376,14 +7817,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6134100" y="8810625"/>
+          <a:off x="6048375" y="8734425"/>
           <a:ext cx="3810000" cy="1813560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4401,18 +7842,60 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38735</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>153670</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="10601325"/>
+          <a:ext cx="3353435" cy="1896745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4425,8 +7908,134 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6972300" y="10772775"/>
-          <a:ext cx="3353435" cy="1896745"/>
+          <a:off x="723900" y="4314825"/>
+          <a:ext cx="3400425" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="67551300"/>
+          <a:ext cx="4029075" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7800975" y="63131700"/>
+          <a:ext cx="3877310" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600710</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>286385</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772910" y="65370075"/>
+          <a:ext cx="5172075" cy="1476375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5396,10 +9005,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K494"/>
+  <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="H462" sqref="H462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5541,1411 +9150,1660 @@
     <row r="26" spans="2:2">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="2:2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="3:3">
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="3:3">
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+    <row r="37" spans="3:3">
+      <c r="C37" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1" t="s">
+    <row r="38" spans="4:4">
+      <c r="D38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="39" spans="3:4">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>118</v>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>119</v>
+      <c r="B44" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
-        <v>121</v>
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" t="s">
-        <v>122</v>
+      <c r="C47" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" t="s">
-        <v>123</v>
+      <c r="C48" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="3:3">
-      <c r="C50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="3:3">
-      <c r="C53" t="s">
-        <v>127</v>
-      </c>
-    </row>
     <row r="55" spans="3:3">
-      <c r="C55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="3:3">
-      <c r="C56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4">
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="3:3">
-      <c r="C58" t="s">
+      <c r="C55" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
-      <c r="B63" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="3:3">
-      <c r="C64" t="s">
-        <v>122</v>
+    <row r="57" spans="3:3">
+      <c r="C57" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="1"/>
+      <c r="C63" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="3:3">
-      <c r="C65" t="s">
-        <v>132</v>
+      <c r="C65" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="3:3">
-      <c r="C66" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="67" spans="4:4">
-      <c r="D67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>135</v>
+      <c r="C66" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69" s="2"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="78" spans="3:3">
-      <c r="C78" t="s">
-        <v>138</v>
+      <c r="C77" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="2" t="s">
-        <v>139</v>
+      <c r="B80" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="89" spans="3:3">
-      <c r="C89" t="s">
+      <c r="C81" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="1" t="s">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" t="s">
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" t="s">
+    <row r="84" spans="3:3">
+      <c r="C84" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="86" spans="1:1">
+      <c r="A86" s="1" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3">
-      <c r="C96" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
-        <v>153</v>
+      <c r="B99" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="103" spans="3:3">
-      <c r="C103" t="s">
-        <v>155</v>
+      <c r="B102" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="3:3">
-      <c r="C106" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="107" spans="3:3">
-      <c r="C107" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="108" spans="4:4">
-      <c r="D108" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" t="s">
-        <v>162</v>
+      <c r="B105" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" t="s">
-        <v>165</v>
+      <c r="B112" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116" spans="3:3">
-      <c r="C116" t="s">
-        <v>167</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="1" t="s">
-        <v>174</v>
+      <c r="B124" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2">
-      <c r="B129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2">
-      <c r="B136" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" t="s">
+    <row r="128" spans="3:3">
+      <c r="C128" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" t="s">
+    <row r="129" spans="3:3">
+      <c r="C129" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" t="s">
+    <row r="130" spans="3:3">
+      <c r="C130" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
-      <c r="C140" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
-      <c r="C141" t="s">
+    <row r="150" spans="1:1">
+      <c r="A150" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
-      <c r="C142" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="1" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="1" t="s">
+    <row r="153" spans="3:3">
+      <c r="C153" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="165" spans="3:3">
-      <c r="C165" t="s">
+    <row r="156" spans="3:3">
+      <c r="C156" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="168" spans="3:3">
-      <c r="C168" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" t="s">
+    <row r="180" spans="1:1">
+      <c r="A180" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="2" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="192" spans="1:1">
-      <c r="A192" s="1" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="196" spans="2:2">
-      <c r="B196" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="197" spans="2:2">
-      <c r="B197" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="198" spans="2:2">
-      <c r="B198" t="s">
+    <row r="209" spans="1:1">
+      <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="2:2">
-      <c r="B200" t="s">
+    <row r="211" spans="3:3">
+      <c r="C211" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="1" t="s">
+    <row r="212" spans="3:3">
+      <c r="C212" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" t="s">
+    <row r="213" spans="2:2">
+      <c r="B213" s="2" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4">
+      <c r="D222" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="224" spans="3:3">
-      <c r="C224" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
-        <v>216</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="227" spans="3:3">
-      <c r="C227" t="s">
-        <v>217</v>
+      <c r="C227" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="228" spans="2:2">
-      <c r="B228" t="s">
-        <v>218</v>
+      <c r="B228" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="229" spans="3:3">
-      <c r="C229" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="232" spans="3:3">
-      <c r="C232" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="233" spans="3:3">
-      <c r="C233" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="234" spans="4:4">
-      <c r="D234" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="235" spans="3:3">
-      <c r="C235" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="237" spans="3:3">
-      <c r="C237" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="238" spans="3:3">
+      <c r="C229" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3">
+      <c r="B238" t="s">
+        <v>231</v>
+      </c>
       <c r="C238" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="241" spans="3:3">
-      <c r="C241" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="242" spans="3:3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3">
+      <c r="B242" t="s">
+        <v>235</v>
+      </c>
       <c r="C242" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3">
+      <c r="B246" t="s">
+        <v>239</v>
+      </c>
+      <c r="C246" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="2:3">
       <c r="B250" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C250" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="251" spans="3:3">
       <c r="C251" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="252" spans="3:3">
-      <c r="C252" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3">
-      <c r="B254" t="s">
-        <v>238</v>
-      </c>
-      <c r="C254" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="255" spans="3:3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4">
+      <c r="D252" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3">
+      <c r="B255" t="s">
+        <v>248</v>
+      </c>
       <c r="C255" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="256" spans="3:3">
       <c r="C256" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3">
-      <c r="B258" t="s">
-        <v>242</v>
-      </c>
-      <c r="C258" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="259" spans="3:3">
-      <c r="C259" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="260" spans="3:3">
-      <c r="C260" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3">
-      <c r="B262" t="s">
-        <v>246</v>
-      </c>
-      <c r="C262" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="263" spans="3:3">
-      <c r="C263" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="264" spans="4:4">
-      <c r="D264" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="265" spans="3:3">
-      <c r="C265" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="267" spans="2:3">
-      <c r="B267" t="s">
+    <row r="257" spans="3:3">
+      <c r="C257" t="s">
         <v>251</v>
       </c>
-      <c r="C267" t="s">
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="264" customFormat="1"/>
+    <row r="265" spans="1:1">
+      <c r="A265" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2">
+      <c r="B267" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="269" customFormat="1"/>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="268" spans="3:3">
-      <c r="C268" t="s">
+    <row r="271" spans="2:2">
+      <c r="B271" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="269" spans="3:3">
-      <c r="C269" t="s">
+    <row r="272" spans="3:3">
+      <c r="C272" s="2" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
-      <c r="A271" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="272" spans="2:2">
-      <c r="B272" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="273" spans="2:2">
       <c r="B273" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="276" customFormat="1"/>
-    <row r="277" spans="1:1">
-      <c r="A277" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="278" spans="2:2">
-      <c r="B278" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="281" customFormat="1"/>
-    <row r="282" spans="1:1">
-      <c r="A282" s="1" t="s">
         <v>255</v>
       </c>
     </row>
+    <row r="274" spans="3:3">
+      <c r="C274" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2">
+      <c r="B277" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2">
+      <c r="B281" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2">
+      <c r="B282" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="283" spans="2:2">
-      <c r="B283" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="284" spans="3:3">
-      <c r="C284" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="286" spans="3:3">
-      <c r="C286" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="287" spans="3:3">
-      <c r="C287" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="288" spans="3:3">
-      <c r="C288" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2">
-      <c r="B289" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="290" spans="3:3">
-      <c r="C290" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
-      <c r="A292" s="1" t="s">
+      <c r="B283" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="293" spans="2:2">
-      <c r="B293" t="s">
+    <row r="285" spans="1:1">
+      <c r="A285" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="295" spans="1:1">
-      <c r="A295" s="1" t="s">
+    <row r="286" spans="2:2">
+      <c r="B286" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="296" spans="2:2">
-      <c r="B296" t="s">
+    <row r="287" spans="2:2">
+      <c r="B287" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2">
+      <c r="B288" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2">
+      <c r="B291" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="298" spans="2:2">
       <c r="B298" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="301" spans="2:2">
-      <c r="B301" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2">
-      <c r="B302" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
-      <c r="A304" s="1" t="s">
-        <v>273</v>
+      <c r="B301" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2">
+      <c r="B304" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="306" spans="3:3">
-      <c r="C306" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
-        <v>276</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" s="1" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="308" spans="2:2">
       <c r="B308" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="310" spans="1:1">
       <c r="A310" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="311" spans="2:2">
       <c r="B311" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
-      <c r="A313" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="314" spans="2:2">
       <c r="B314" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="315" spans="2:2">
       <c r="B315" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
-      <c r="A317" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2">
+      <c r="B316" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2">
+      <c r="B317" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="318" spans="2:2">
       <c r="B318" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
-      <c r="A320" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2">
-      <c r="B321" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="322" spans="3:3">
-      <c r="C322" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="323" spans="3:3">
-      <c r="C323" t="s">
-        <v>288</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2">
+      <c r="B319" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="324" spans="2:2">
       <c r="B324" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="325" spans="2:2">
       <c r="B325" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2">
-      <c r="B326" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2">
-      <c r="B327" t="s">
-        <v>292</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="328" spans="2:2">
       <c r="B328" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="329" spans="2:2">
       <c r="B329" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
-      <c r="A332" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2">
-      <c r="B333" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2">
-      <c r="B334" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2">
-      <c r="B335" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2">
-      <c r="B336" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2">
-      <c r="B337" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="339" spans="2:2">
-      <c r="B339" t="s">
+    <row r="346" spans="1:1">
+      <c r="A346" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="340" spans="2:2">
-      <c r="B340" t="s">
+    <row r="347" spans="2:2">
+      <c r="B347" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="341" spans="2:2">
-      <c r="B341" t="s">
+    <row r="349" spans="1:1">
+      <c r="A349" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="357" spans="1:1">
-      <c r="A357" s="1" t="s">
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2">
+      <c r="B352" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4">
+      <c r="D355" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357" s="1" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="358" spans="2:2">
       <c r="B358" t="s">
-        <v>305</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1">
+      <c r="A366" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1">
+      <c r="A368" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2">
+      <c r="B369" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2">
-      <c r="B371" t="s">
-        <v>307</v>
+      <c r="B370" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="2"/>
+      <c r="C371" s="2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" t="s">
-        <v>308</v>
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2">
+      <c r="B373" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="374" spans="2:2">
       <c r="B374" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="375" spans="2:2">
       <c r="B375" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
-      <c r="A377" s="1" t="s">
-        <v>311</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2">
+      <c r="B376" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="378" spans="2:2">
       <c r="B378" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="380" spans="2:2">
       <c r="B380" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="381" spans="2:2">
       <c r="B381" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2">
-      <c r="B384" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
     </row>
     <row r="385" spans="2:2">
-      <c r="B385" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2">
-      <c r="B386" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1">
-      <c r="A388" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2">
-      <c r="B389" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
-      <c r="A407" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2">
-      <c r="B408" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
-      <c r="A410" s="1" t="s">
-        <v>325</v>
+      <c r="B385" s="2"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2">
+      <c r="B395" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4">
+      <c r="D397" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4">
+      <c r="D398" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4">
+      <c r="D400" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2">
+      <c r="B402" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2">
+      <c r="B403" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2">
+      <c r="B405" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="411" spans="2:2">
-      <c r="B411" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2">
-      <c r="B412" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2">
-      <c r="B413" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2">
-      <c r="B414" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2">
-      <c r="B415" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="416" spans="3:3">
-      <c r="C416" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="417" spans="3:3">
-      <c r="C417" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
-      <c r="A419" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2">
-      <c r="B420" t="s">
-        <v>334</v>
+      <c r="B411" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="421" spans="2:2">
       <c r="B421" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="422" spans="2:2">
       <c r="B422" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="423" spans="2:2">
       <c r="B423" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="424" spans="3:3">
-      <c r="C424" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="425" spans="3:3">
-      <c r="C425" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="426" spans="3:3">
-      <c r="C426" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="427" spans="3:3">
-      <c r="C427" t="s">
-        <v>341</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2">
+      <c r="B424" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2">
+      <c r="B425" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2">
+      <c r="B427" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="428" spans="2:2">
       <c r="B428" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="429" spans="3:3">
-      <c r="C429" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="430" spans="3:3">
-      <c r="C430" t="s">
-        <v>344</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2">
+      <c r="B429" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" s="1" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="433" spans="2:2">
       <c r="B433" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="434" spans="2:2">
-      <c r="B434" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
-      <c r="A439" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
-      <c r="A442" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="1" t="s">
-        <v>350</v>
+      <c r="B434" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2">
+      <c r="B435" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2">
+      <c r="B436" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2">
+      <c r="B437" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2">
+      <c r="B438" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2">
+      <c r="B446" s="2" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="448" spans="2:2">
-      <c r="B448" t="s">
-        <v>352</v>
+      <c r="B447" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="449" spans="3:3">
       <c r="C449" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="450" spans="3:3">
       <c r="C450" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
-      <c r="A452" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="453" spans="2:2">
-      <c r="B453" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
-      <c r="A458" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="452" spans="4:4">
+      <c r="D452" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="453" spans="4:4">
+      <c r="D453" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2">
+      <c r="B458" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461" s="2"/>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="463" spans="3:4">
+      <c r="C463" s="2"/>
+      <c r="D463" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464" s="2"/>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4">
+      <c r="C466" s="2"/>
+      <c r="D466" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467" s="2"/>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469" s="2"/>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4">
+      <c r="C471" s="2"/>
+      <c r="D471" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472" s="2"/>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4">
+      <c r="C474" s="2"/>
+      <c r="D474" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475" s="2"/>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477" s="2"/>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479" s="2"/>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481" s="2"/>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4">
+      <c r="C483" s="2"/>
+      <c r="D483" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484" s="2"/>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4">
+      <c r="C486" s="2"/>
+      <c r="D486" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4">
+      <c r="C487" s="2"/>
+      <c r="D487" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4">
+      <c r="C488" s="2"/>
+      <c r="D488" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2">
+      <c r="B491" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="477" spans="1:1">
-      <c r="A477" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="478" spans="2:2">
-      <c r="B478" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="479" spans="3:3">
-      <c r="C479" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="480" spans="3:3">
-      <c r="C480" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="481" spans="3:3">
-      <c r="C481" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="482" spans="3:3">
-      <c r="C482" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="483" spans="3:3">
-      <c r="C483" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="484" spans="3:3">
-      <c r="C484" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="485" spans="4:4">
-      <c r="D485" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="486" spans="4:4">
-      <c r="D486" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="488" spans="2:2">
-      <c r="B488" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="489" spans="3:3">
-      <c r="C489" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="490" spans="3:3">
-      <c r="C490" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="491" spans="3:3">
-      <c r="C491" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="492" spans="3:3">
-      <c r="C492" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="493" spans="3:3">
-      <c r="C493" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="494" spans="3:3">
-      <c r="C494" t="s">
-        <v>374</v>
+    <row r="515" spans="1:1">
+      <c r="A515" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2">
+      <c r="B516" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="523" spans="4:4">
+      <c r="D523" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="524" spans="4:4">
+      <c r="D524" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2">
+      <c r="B526" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -6975,67 +10833,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -7085,47 +10943,47 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>258</v>
+        <v>430</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>259</v>
+        <v>431</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>260</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>261</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -7155,62 +11013,62 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -9007,8 +9007,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="H462" sqref="H462"/>
+    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
+      <selection activeCell="M484" sqref="M484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Netty/Netty.xlsx
+++ b/Netty/Netty.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="447">
   <si>
     <t>讲讲Netty的特点</t>
   </si>
@@ -1166,6 +1166,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>JBoss的开源框架，</t>
     </r>
     <r>
@@ -1192,6 +1199,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty 是一款</t>
     </r>
     <r>
@@ -1229,6 +1243,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">阿里分布式服务框架 </t>
     </r>
     <r>
@@ -1303,6 +1324,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>IO 线程模型</t>
     </r>
     <r>
@@ -1318,6 +1347,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>内存零拷贝</t>
     </r>
     <r>
@@ -1344,6 +1381,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>内存池设计</t>
     </r>
     <r>
@@ -1362,6 +1407,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>线程串形化处理读写</t>
     </r>
     <r>
@@ -1377,6 +1430,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>高性能序列化协议</t>
     </r>
     <r>
@@ -1416,6 +1477,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty通常</t>
     </r>
     <r>
@@ -1484,6 +1552,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty允许使用者</t>
     </r>
     <r>
@@ -1537,6 +1612,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>外部线程调用EventLoop</t>
     </r>
     <r>
@@ -1563,6 +1646,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果是外部线程</t>
     </r>
     <r>
@@ -1613,6 +1704,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>protobuf每个字段我们都用</t>
     </r>
     <r>
@@ -1660,6 +1758,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>小</t>
     </r>
     <r>
@@ -1822,6 +1928,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>json</t>
     </r>
     <r>
@@ -1911,6 +2025,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>快</t>
     </r>
     <r>
@@ -2010,6 +2132,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们就知道肯定</t>
     </r>
     <r>
@@ -2057,6 +2186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而</t>
     </r>
     <r>
@@ -2089,6 +2225,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>常用的零拷贝有</t>
     </r>
     <r>
@@ -2136,6 +2279,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DMA:直接内存拷贝</t>
     </r>
     <r>
@@ -2154,6 +2305,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1 磁盘上的数据通过</t>
     </r>
     <r>
@@ -2180,6 +2338,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2 通过</t>
     </r>
     <r>
@@ -2227,6 +2392,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3 然后通过</t>
     </r>
     <r>
@@ -2253,6 +2425,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4 再通过</t>
     </r>
     <r>
@@ -2269,6 +2448,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>mmap：3次拷贝</t>
     </r>
     <r>
@@ -2316,6 +2503,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在进行网络传输时，可以</t>
     </r>
     <r>
@@ -2332,6 +2526,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
@@ -2348,6 +2549,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所以直接在内核空间中修改</t>
     </r>
     <r>
@@ -2374,6 +2583,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3 再通过</t>
     </r>
     <r>
@@ -2393,6 +2609,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">采用 </t>
     </r>
     <r>
@@ -2440,6 +2663,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不需要CPU进行字节缓冲区的二次拷贝</t>
     </r>
     <r>
@@ -2455,6 +2686,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">2 </t>
     </r>
     <r>
@@ -2471,6 +2709,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注意：</t>
     </r>
     <r>
@@ -2514,6 +2759,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对象</t>
     </r>
     <r>
@@ -2561,6 +2813,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这样做的结果就是能够在一定程度上</t>
     </r>
     <r>
@@ -2604,6 +2863,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -2654,6 +2920,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>堆内内存由JVM管理，属于“用户态”</t>
     </r>
     <r>
@@ -2690,6 +2964,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果</t>
     </r>
     <r>
@@ -2793,6 +3074,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>JDK的</t>
     </r>
     <r>
@@ -2836,6 +3124,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Tomcat 是 Servlet 容器</t>
     </r>
     <r>
@@ -2862,6 +3158,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty</t>
     </r>
     <r>
@@ -2922,6 +3226,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Tomcat</t>
     </r>
     <r>
@@ -2978,6 +3290,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Channel</t>
     </r>
     <r>
@@ -3014,6 +3334,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>EventLoop</t>
     </r>
     <r>
@@ -3050,6 +3378,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelFuture</t>
     </r>
     <r>
@@ -3097,6 +3433,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelFutureListener</t>
     </r>
     <r>
@@ -3123,6 +3467,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelHandler</t>
     </r>
     <r>
@@ -3170,6 +3522,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这里的事件很广泛，</t>
     </r>
     <r>
@@ -3186,6 +3545,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelPipeline</t>
     </r>
     <r>
@@ -3215,6 +3582,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>直接写入 Channel 中</t>
     </r>
     <r>
@@ -3241,6 +3616,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>写入和 ChannelHandler 绑定的 ChannelHandlerContext 中</t>
     </r>
     <r>
@@ -3270,6 +3653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Netty 默认是 </t>
     </r>
     <r>
@@ -3310,6 +3700,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>通过</t>
     </r>
     <r>
@@ -3392,6 +3789,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.Reactor对象通过</t>
     </r>
     <r>
@@ -3429,6 +3833,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.如果</t>
     </r>
     <r>
@@ -3469,6 +3880,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.如果</t>
     </r>
     <r>
@@ -3485,6 +3903,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.</t>
     </r>
     <r>
@@ -3525,6 +3950,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -3541,6 +3973,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6.</t>
     </r>
     <r>
@@ -3599,6 +4038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1 Reactor</t>
     </r>
     <r>
@@ -3657,6 +4103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -3694,6 +4147,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.subrector</t>
     </r>
     <r>
@@ -3731,6 +4191,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.当</t>
     </r>
     <r>
@@ -3747,6 +4214,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>5.Handler通过</t>
     </r>
     <r>
@@ -3763,6 +4237,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6.</t>
     </r>
     <r>
@@ -3789,6 +4270,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.</t>
     </r>
     <r>
@@ -3826,6 +4314,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8.Reactor</t>
     </r>
     <r>
@@ -3869,6 +4364,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BossGroup</t>
     </r>
     <r>
@@ -3895,6 +4398,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>WorkerGroup</t>
     </r>
     <r>
@@ -3921,6 +4432,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.</t>
     </r>
     <r>
@@ -3958,6 +4476,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.</t>
     </r>
     <r>
@@ -4008,6 +4533,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.NioEventLoop表示一个不断循环的执行</t>
     </r>
     <r>
@@ -4034,6 +4566,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个NioEventLoop都有一个selector</t>
     </r>
     <r>
@@ -4063,6 +4603,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>6.每个</t>
     </r>
     <r>
@@ -4082,6 +4629,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>处理accept事件</t>
     </r>
     <r>
@@ -4145,6 +4700,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>7.每个</t>
     </r>
     <r>
@@ -4170,6 +4732,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>8.</t>
     </r>
     <r>
@@ -4196,6 +4765,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>管道中包含了channel，</t>
     </r>
     <r>
@@ -4445,6 +5021,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LineBased</t>
     </r>
     <r>
@@ -4481,6 +5065,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对于通过</t>
     </r>
     <r>
@@ -4507,6 +5098,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LineBased</t>
     </r>
     <r>
@@ -4533,6 +5132,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Delimiter</t>
     </r>
     <r>
@@ -4559,6 +5166,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LengthFieldBased</t>
     </r>
     <r>
@@ -4585,6 +5200,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LengthFieldBasedFrameDecoder与LengthFieldPrepender</t>
     </r>
     <r>
@@ -4628,6 +5250,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>接受异步IO操作的结果</t>
     </r>
     <r>
@@ -4685,6 +5315,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Netty里的内存管理是通</t>
     </r>
     <r>
@@ -4803,6 +5440,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>3.通过 bind 方法启动，内部重要方法为</t>
     </r>
     <r>
@@ -4829,6 +5473,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>4.initAndRegister 方法会</t>
     </r>
     <r>
@@ -4866,6 +5517,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同时也含有NioServerSocketChannelConfig 对象</t>
     </r>
     <r>
@@ -4892,6 +5551,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个处理器</t>
     </r>
     <r>
@@ -4938,6 +5604,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelPipeline类是</t>
     </r>
     <r>
@@ -4985,6 +5658,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelPipeline中维护了一个</t>
     </r>
     <r>
@@ -5001,6 +5681,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个</t>
     </r>
     <r>
@@ -5089,6 +5776,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>而</t>
     </r>
     <r>
@@ -5183,6 +5877,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ChannelHandlerContext</t>
     </r>
     <r>
@@ -5227,6 +5929,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">netty 提供的 </t>
     </r>
     <r>
@@ -5270,6 +5979,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当连接的</t>
     </r>
     <r>
@@ -5317,6 +6033,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">然后，你可以通过你的 </t>
     </r>
     <r>
@@ -5364,6 +6087,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当服务器和客户端</t>
     </r>
     <r>
@@ -5453,6 +6183,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>用户</t>
     </r>
     <r>
@@ -5510,6 +6248,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>IdleStateHandler 的实现</t>
     </r>
     <r>
@@ -5557,6 +6302,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在定时任务运行的时候，通过计算</t>
     </r>
     <r>
@@ -5646,6 +6398,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">内部有 </t>
     </r>
     <r>
@@ -5693,6 +6452,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>IdleStateHandler 内部也考虑了一些</t>
     </r>
     <r>
@@ -5761,6 +6527,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Netty 通过构造方法中的 </t>
     </r>
     <r>
@@ -5787,6 +6560,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果出站缓慢，Netty 不认为这是空闲</t>
     </r>
     <r>
@@ -5844,6 +6625,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>因为</t>
     </r>
     <r>
@@ -5881,6 +6669,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>所以，当你的应用</t>
     </r>
     <r>
@@ -5955,6 +6750,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">还有一个注意的地方：刚开始我们说的 </t>
     </r>
     <r>
@@ -5981,6 +6783,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当触发读</t>
     </r>
     <r>
@@ -6028,6 +6837,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">而 </t>
     </r>
     <r>
@@ -6054,6 +6870,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当调用 write 方法的时候</t>
     </r>
     <r>
@@ -6111,6 +6935,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当定时任务根据指定时间开始运行，发现 promise 的 isDone 方法返回 false</t>
     </r>
     <r>
@@ -6126,6 +6958,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当 write 方法完成后</t>
     </r>
     <r>
@@ -6237,50 +7077,6 @@
   </si>
   <si>
     <t>最后是第三次握手：客户机接收到服务器的报文，反馈给服务器成功接受的信息。然后这个TCP连接就建立了</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LineBased</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FrameDecoder与</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DelimiterBased</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FrameDecoder</t>
-    </r>
   </si>
   <si>
     <t>对于通过分隔符进行粘包和拆包问题的处理，Netty提供了两个编解码的类，</t>
@@ -6369,10 +7165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -6432,14 +7228,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -6448,7 +7236,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6463,37 +7265,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6508,17 +7280,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6538,8 +7302,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6548,13 +7351,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6569,13 +7365,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6587,43 +7401,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6641,19 +7461,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6665,31 +7491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6701,43 +7503,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6778,11 +7574,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6802,45 +7619,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6855,8 +7633,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6883,10 +7679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6895,16 +7691,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6913,115 +7709,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -9007,8 +9803,8 @@
   <sheetPr/>
   <dimension ref="A1:K532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A477" workbookViewId="0">
-      <selection activeCell="M484" sqref="M484"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10958,32 +11754,32 @@
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="1" t="s">
-        <v>430</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -11013,62 +11809,62 @@
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
